--- a/BalanceInfo/2.3 Players Patch - Balance Design build 10.xlsx
+++ b/BalanceInfo/2.3 Players Patch - Balance Design build 10.xlsx
@@ -15575,7 +15575,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7" filterMode="1">
+  <sheetPr codeName="Sheet7">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:X115"/>
@@ -15584,7 +15584,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15672,171 +15672,405 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>242</v>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>323</v>
       </c>
       <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>18</v>
+      </c>
+      <c r="H2" s="38">
+        <v>500</v>
+      </c>
+      <c r="I2" s="40">
+        <v>20</v>
+      </c>
+      <c r="J2" s="11">
+        <f>IFERROR(I2*$V$1,"")</f>
+        <v>14.166666660000001</v>
+      </c>
+      <c r="K2" s="11">
+        <f>IFERROR(I2*$W$1,"")</f>
+        <v>11.555555559999998</v>
+      </c>
+      <c r="L2" s="11">
+        <f>IFERROR(I2*$X$1,"")</f>
+        <v>10</v>
+      </c>
+      <c r="M2" s="41">
+        <v>200</v>
+      </c>
+      <c r="N2" s="11">
+        <v>75</v>
+      </c>
+      <c r="O2" s="11">
+        <f>N2/2</f>
+        <v>37.5</v>
+      </c>
+      <c r="P2" s="11">
+        <f>N2/3</f>
+        <v>25</v>
+      </c>
+      <c r="Q2" s="12">
+        <f>N2/4</f>
+        <v>18.75</v>
+      </c>
+      <c r="R2">
+        <v>52</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>29</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3" s="38">
         <v>800</v>
       </c>
-      <c r="D2">
-        <v>40</v>
-      </c>
-      <c r="E2">
-        <v>28</v>
-      </c>
-      <c r="F2">
-        <v>23</v>
-      </c>
-      <c r="G2">
-        <v>20</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3">
+      <c r="I3" s="40">
+        <v>30</v>
+      </c>
+      <c r="J3" s="11">
+        <f>IFERROR(I3*$V$1,"")</f>
+        <v>21.249999989999999</v>
+      </c>
+      <c r="K3" s="11">
+        <f>IFERROR(I3*$W$1,"")</f>
+        <v>17.333333339999999</v>
+      </c>
+      <c r="L3" s="11">
+        <f>IFERROR(I3*$X$1,"")</f>
+        <v>15</v>
+      </c>
+      <c r="M3" s="41">
+        <v>300</v>
+      </c>
+      <c r="N3" s="11">
+        <v>126</v>
+      </c>
+      <c r="O3" s="11">
+        <f>N3/2</f>
+        <v>63</v>
+      </c>
+      <c r="P3" s="11">
+        <f>N3/3</f>
+        <v>42</v>
+      </c>
+      <c r="Q3" s="12">
+        <f>N3/4</f>
+        <v>31.5</v>
+      </c>
+      <c r="R3">
+        <v>51</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4">
         <v>400</v>
       </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4">
+      <c r="D4">
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <v>64</v>
+      </c>
+      <c r="F4">
+        <v>52</v>
+      </c>
+      <c r="G4">
+        <v>45</v>
+      </c>
+      <c r="H4" s="38">
         <v>1000</v>
       </c>
-      <c r="D4">
+      <c r="I4" s="40">
         <v>75</v>
       </c>
-      <c r="E4">
-        <v>53</v>
-      </c>
-      <c r="F4">
-        <v>43</v>
-      </c>
-      <c r="G4">
-        <v>38</v>
+      <c r="J4" s="11">
+        <f>IFERROR(I4*$V$1,"")</f>
+        <v>53.124999975000001</v>
+      </c>
+      <c r="K4" s="11">
+        <f>IFERROR(I4*$W$1,"")</f>
+        <v>43.333333349999997</v>
+      </c>
+      <c r="L4" s="11">
+        <f>IFERROR(I4*$X$1,"")</f>
+        <v>37.5</v>
+      </c>
+      <c r="M4" s="41">
+        <v>800</v>
+      </c>
+      <c r="N4" s="11">
+        <v>300</v>
+      </c>
+      <c r="O4" s="11">
+        <f>N4/2</f>
+        <v>150</v>
+      </c>
+      <c r="P4" s="11">
+        <f>N4/3</f>
+        <v>100</v>
+      </c>
+      <c r="Q4" s="12">
+        <f>N4/4</f>
+        <v>75</v>
       </c>
       <c r="R4">
+        <v>48</v>
+      </c>
+      <c r="S4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>247</v>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>307</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>307</v>
       </c>
       <c r="C5">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>71</v>
+      </c>
+      <c r="F5">
+        <v>58</v>
+      </c>
+      <c r="G5">
         <v>50</v>
       </c>
-      <c r="E5">
-        <v>35</v>
-      </c>
-      <c r="F5">
-        <v>29</v>
-      </c>
-      <c r="G5">
+      <c r="H5" s="38">
+        <v>1100</v>
+      </c>
+      <c r="I5" s="40">
+        <v>100</v>
+      </c>
+      <c r="J5" s="11">
+        <f>IFERROR(I5*$V$1,"")</f>
+        <v>70.833333300000007</v>
+      </c>
+      <c r="K5" s="11">
+        <f>IFERROR(I5*$W$1,"")</f>
+        <v>57.777777799999996</v>
+      </c>
+      <c r="L5" s="11">
+        <f>IFERROR(I5*$X$1,"")</f>
+        <v>50</v>
+      </c>
+      <c r="M5" s="41">
+        <v>1000</v>
+      </c>
+      <c r="N5" s="11">
+        <v>402</v>
+      </c>
+      <c r="O5" s="11">
+        <f>N5/2</f>
+        <v>201</v>
+      </c>
+      <c r="P5" s="11">
+        <f>N5/3</f>
+        <v>134</v>
+      </c>
+      <c r="Q5" s="12">
+        <f>N5/4</f>
+        <v>100.5</v>
+      </c>
+      <c r="R5">
+        <v>44</v>
+      </c>
+      <c r="S5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>71</v>
+      </c>
+      <c r="F6">
+        <v>58</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6" s="38">
+        <v>1100</v>
+      </c>
+      <c r="I6" s="40">
+        <v>100</v>
+      </c>
+      <c r="J6" s="11">
+        <f>IFERROR(I6*$V$1,"")</f>
+        <v>70.833333300000007</v>
+      </c>
+      <c r="K6" s="11">
+        <f>IFERROR(I6*$W$1,"")</f>
+        <v>57.777777799999996</v>
+      </c>
+      <c r="L6" s="11">
+        <f>IFERROR(I6*$X$1,"")</f>
+        <v>50</v>
+      </c>
+      <c r="M6" s="41">
+        <v>1000</v>
+      </c>
+      <c r="N6" s="11">
+        <v>401</v>
+      </c>
+      <c r="O6" s="11">
+        <f>N6/2</f>
+        <v>200.5</v>
+      </c>
+      <c r="P6" s="11">
+        <f>N6/3</f>
+        <v>133.66666666666666</v>
+      </c>
+      <c r="Q6" s="12">
+        <f>N6/4</f>
+        <v>100.25</v>
+      </c>
+      <c r="R6">
+        <v>70</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7">
+        <v>800</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>71</v>
+      </c>
+      <c r="F7">
+        <v>58</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7" s="38">
+        <v>1500</v>
+      </c>
+      <c r="I7" s="40">
+        <v>75</v>
+      </c>
+      <c r="J7" s="11">
+        <f>IFERROR(I7*$V$1,"")</f>
+        <v>53.124999975000001</v>
+      </c>
+      <c r="K7" s="11">
+        <f>IFERROR(I7*$W$1,"")</f>
+        <v>43.333333349999997</v>
+      </c>
+      <c r="L7" s="11">
+        <f>IFERROR(I7*$X$1,"")</f>
+        <v>37.5</v>
+      </c>
+      <c r="M7" s="41">
+        <v>1000</v>
+      </c>
+      <c r="N7" s="11">
+        <v>75</v>
+      </c>
+      <c r="O7" s="11">
+        <f>N7/2</f>
+        <v>37.5</v>
+      </c>
+      <c r="P7" s="11">
+        <f>N7/3</f>
         <v>25</v>
       </c>
-      <c r="R5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6">
-        <v>1500</v>
-      </c>
-      <c r="D6">
-        <v>45</v>
-      </c>
-      <c r="E6">
-        <v>32</v>
-      </c>
-      <c r="F6">
-        <v>26</v>
-      </c>
-      <c r="G6">
-        <v>22</v>
-      </c>
-      <c r="R6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7">
-        <v>400</v>
-      </c>
-      <c r="D7">
-        <v>30</v>
-      </c>
-      <c r="E7">
-        <v>21</v>
-      </c>
-      <c r="F7">
-        <v>17</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
+      <c r="Q7" s="12">
+        <f>N7/4</f>
+        <v>18.75</v>
       </c>
       <c r="R7">
+        <v>47</v>
+      </c>
+      <c r="S7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>251</v>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>309</v>
       </c>
       <c r="B8" t="s">
-        <v>252</v>
+        <v>310</v>
       </c>
       <c r="C8">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="D8">
         <v>90</v>
@@ -15850,201 +16084,513 @@
       <c r="G8">
         <v>45</v>
       </c>
+      <c r="H8" s="38">
+        <v>1200</v>
+      </c>
+      <c r="I8" s="40">
+        <v>60</v>
+      </c>
+      <c r="J8" s="11">
+        <f>IFERROR(I8*$V$1,"")</f>
+        <v>42.499999979999998</v>
+      </c>
+      <c r="K8" s="11">
+        <f>IFERROR(I8*$W$1,"")</f>
+        <v>34.666666679999999</v>
+      </c>
+      <c r="L8" s="11">
+        <f>IFERROR(I8*$X$1,"")</f>
+        <v>30</v>
+      </c>
+      <c r="M8" s="41">
+        <v>700</v>
+      </c>
+      <c r="N8" s="11">
+        <v>200</v>
+      </c>
+      <c r="O8" s="11">
+        <f>N8/2</f>
+        <v>100</v>
+      </c>
+      <c r="P8" s="11">
+        <f>N8/3</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="Q8" s="12">
+        <f>N8/4</f>
+        <v>50</v>
+      </c>
       <c r="R8">
+        <v>46</v>
+      </c>
+      <c r="S8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>253</v>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>330</v>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>331</v>
       </c>
       <c r="C9">
-        <v>1800</v>
-      </c>
-      <c r="D9">
-        <v>140</v>
-      </c>
-      <c r="E9">
-        <v>99</v>
-      </c>
-      <c r="F9">
-        <v>81</v>
-      </c>
-      <c r="G9">
+        <v>600</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E9" s="2">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2">
+        <v>12</v>
+      </c>
+      <c r="G9" s="2">
+        <v>10</v>
+      </c>
+      <c r="H9" s="38">
+        <v>600</v>
+      </c>
+      <c r="I9" s="40">
+        <v>30</v>
+      </c>
+      <c r="J9" s="11">
+        <f>IFERROR(I9*$V$1,"")</f>
+        <v>21.249999989999999</v>
+      </c>
+      <c r="K9" s="11">
+        <f>IFERROR(I9*$W$1,"")</f>
+        <v>17.333333339999999</v>
+      </c>
+      <c r="L9" s="11">
+        <f>IFERROR(I9*$X$1,"")</f>
+        <v>15</v>
+      </c>
+      <c r="M9" s="41">
+        <v>400</v>
+      </c>
+      <c r="N9" s="11">
+        <v>250</v>
+      </c>
+      <c r="O9" s="11">
+        <f>N9/2</f>
+        <v>125</v>
+      </c>
+      <c r="P9" s="11">
+        <f>N9/3</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="Q9" s="12">
+        <f>N9/4</f>
+        <v>62.5</v>
+      </c>
+      <c r="R9">
+        <v>55</v>
+      </c>
+      <c r="S9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10" t="s">
+        <v>318</v>
+      </c>
+      <c r="C10">
+        <v>700</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E10" s="2">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2">
+        <v>12</v>
+      </c>
+      <c r="H10" s="38">
+        <v>800</v>
+      </c>
+      <c r="I10" s="40">
+        <v>40</v>
+      </c>
+      <c r="J10" s="11">
+        <f>IFERROR(I10*$V$1,"")</f>
+        <v>28.333333320000001</v>
+      </c>
+      <c r="K10" s="11">
+        <f>IFERROR(I10*$W$1,"")</f>
+        <v>23.111111119999997</v>
+      </c>
+      <c r="L10" s="11">
+        <f>IFERROR(I10*$X$1,"")</f>
+        <v>20</v>
+      </c>
+      <c r="M10" s="41">
+        <v>500</v>
+      </c>
+      <c r="N10" s="11">
+        <v>302</v>
+      </c>
+      <c r="O10" s="11">
+        <f>N10/2</f>
+        <v>151</v>
+      </c>
+      <c r="P10" s="11">
+        <f>N10/3</f>
+        <v>100.66666666666667</v>
+      </c>
+      <c r="Q10" s="12">
+        <f>N10/4</f>
+        <v>75.5</v>
+      </c>
+      <c r="R10">
+        <v>50</v>
+      </c>
+      <c r="S10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B11" t="s">
+        <v>338</v>
+      </c>
+      <c r="C11">
+        <v>700</v>
+      </c>
+      <c r="D11">
         <v>70</v>
       </c>
-      <c r="R9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C10">
-        <v>600</v>
-      </c>
-      <c r="D10">
-        <v>30</v>
-      </c>
-      <c r="E10">
-        <v>21</v>
-      </c>
-      <c r="F10">
-        <v>17</v>
-      </c>
-      <c r="G10">
-        <v>15</v>
-      </c>
-      <c r="R10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C11">
-        <v>1500</v>
-      </c>
-      <c r="D11">
-        <v>60</v>
-      </c>
       <c r="E11">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F11">
+        <v>40</v>
+      </c>
+      <c r="G11">
         <v>35</v>
       </c>
-      <c r="G11">
-        <v>30</v>
+      <c r="H11" s="38">
+        <v>1200</v>
+      </c>
+      <c r="I11" s="40">
+        <v>100</v>
+      </c>
+      <c r="J11" s="11">
+        <f>IFERROR(I11*$V$1,"")</f>
+        <v>70.833333300000007</v>
+      </c>
+      <c r="K11" s="11">
+        <f>IFERROR(I11*$W$1,"")</f>
+        <v>57.777777799999996</v>
+      </c>
+      <c r="L11" s="11">
+        <f>IFERROR(I11*$X$1,"")</f>
+        <v>50</v>
+      </c>
+      <c r="M11" s="41">
+        <v>1200</v>
+      </c>
+      <c r="N11" s="11">
+        <v>300</v>
+      </c>
+      <c r="O11" s="11">
+        <f>N11/2</f>
+        <v>150</v>
+      </c>
+      <c r="P11" s="11">
+        <f>N11/3</f>
+        <v>100</v>
+      </c>
+      <c r="Q11" s="12">
+        <f>N11/4</f>
+        <v>75</v>
       </c>
       <c r="R11">
+        <v>58</v>
+      </c>
+      <c r="S11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>257</v>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="B12" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="C12">
         <v>800</v>
       </c>
       <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12">
+        <v>71</v>
+      </c>
+      <c r="F12">
+        <v>58</v>
+      </c>
+      <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12" s="38">
+        <v>1300</v>
+      </c>
+      <c r="I12" s="40">
+        <v>75</v>
+      </c>
+      <c r="J12" s="11">
+        <f>IFERROR(I12*$V$1,"")</f>
+        <v>53.124999975000001</v>
+      </c>
+      <c r="K12" s="11">
+        <f>IFERROR(I12*$W$1,"")</f>
+        <v>43.333333349999997</v>
+      </c>
+      <c r="L12" s="11">
+        <f>IFERROR(I12*$X$1,"")</f>
+        <v>37.5</v>
+      </c>
+      <c r="M12" s="41">
+        <v>1000</v>
+      </c>
+      <c r="N12" s="11">
+        <v>100</v>
+      </c>
+      <c r="O12" s="11">
+        <f>N12/2</f>
+        <v>50</v>
+      </c>
+      <c r="P12" s="11">
+        <f>N12/3</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="Q12" s="12">
+        <f>N12/4</f>
+        <v>25</v>
+      </c>
+      <c r="R12">
+        <v>43</v>
+      </c>
+      <c r="S12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B13" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13">
+        <v>1400</v>
+      </c>
+      <c r="D13">
+        <v>120</v>
+      </c>
+      <c r="E13">
+        <v>85</v>
+      </c>
+      <c r="F13">
+        <v>69</v>
+      </c>
+      <c r="G13">
+        <v>60</v>
+      </c>
+      <c r="H13" s="38">
+        <v>1500</v>
+      </c>
+      <c r="I13" s="40">
+        <v>90</v>
+      </c>
+      <c r="J13" s="11">
+        <f>IFERROR(I13*$V$1,"")</f>
+        <v>63.749999969999998</v>
+      </c>
+      <c r="K13" s="11">
+        <f>IFERROR(I13*$W$1,"")</f>
+        <v>52.000000019999995</v>
+      </c>
+      <c r="L13" s="11">
+        <f>IFERROR(I13*$X$1,"")</f>
+        <v>45</v>
+      </c>
+      <c r="M13" s="41">
+        <v>1200</v>
+      </c>
+      <c r="N13" s="11">
+        <v>322</v>
+      </c>
+      <c r="O13" s="11">
+        <f>N13/2</f>
+        <v>161</v>
+      </c>
+      <c r="P13" s="11">
+        <f>N13/3</f>
+        <v>107.33333333333333</v>
+      </c>
+      <c r="Q13" s="12">
+        <f>N13/4</f>
+        <v>80.5</v>
+      </c>
+      <c r="R13">
+        <v>42</v>
+      </c>
+      <c r="S13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C14">
+        <v>1000</v>
+      </c>
+      <c r="D14">
+        <v>90</v>
+      </c>
+      <c r="E14">
+        <v>64</v>
+      </c>
+      <c r="F14">
+        <v>52</v>
+      </c>
+      <c r="G14">
+        <v>45</v>
+      </c>
+      <c r="H14" s="38">
+        <v>2000</v>
+      </c>
+      <c r="I14" s="40">
+        <v>120</v>
+      </c>
+      <c r="J14" s="11">
+        <f>IFERROR(I14*$V$1,"")</f>
+        <v>84.999999959999997</v>
+      </c>
+      <c r="K14" s="11">
+        <f>IFERROR(I14*$W$1,"")</f>
+        <v>69.333333359999997</v>
+      </c>
+      <c r="L14" s="11">
+        <f>IFERROR(I14*$X$1,"")</f>
+        <v>60</v>
+      </c>
+      <c r="M14" s="41">
+        <v>1700</v>
+      </c>
+      <c r="N14" s="11">
+        <v>450</v>
+      </c>
+      <c r="O14" s="11">
+        <f>N14/2</f>
+        <v>225</v>
+      </c>
+      <c r="P14" s="11">
+        <f>N14/3</f>
+        <v>150</v>
+      </c>
+      <c r="Q14" s="12">
+        <f>N14/4</f>
+        <v>112.5</v>
+      </c>
+      <c r="R14">
+        <v>57</v>
+      </c>
+      <c r="S14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15">
+        <v>1100</v>
+      </c>
+      <c r="D15">
         <v>40</v>
       </c>
-      <c r="E12">
+      <c r="E15">
         <v>28</v>
       </c>
-      <c r="F12">
+      <c r="F15">
         <v>23</v>
       </c>
-      <c r="G12">
+      <c r="G15">
         <v>20</v>
       </c>
-      <c r="R12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B13" t="s">
-        <v>256</v>
-      </c>
-      <c r="C13">
-        <v>400</v>
-      </c>
-      <c r="D13">
-        <v>30</v>
-      </c>
-      <c r="E13">
-        <v>21</v>
-      </c>
-      <c r="F13">
-        <v>17</v>
-      </c>
-      <c r="G13">
-        <v>15</v>
-      </c>
-      <c r="R13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B14" t="s">
-        <v>260</v>
-      </c>
-      <c r="C14">
-        <v>1500</v>
-      </c>
-      <c r="D14">
-        <v>60</v>
-      </c>
-      <c r="E14">
-        <v>42</v>
-      </c>
-      <c r="F14">
-        <v>35</v>
-      </c>
-      <c r="G14">
-        <v>30</v>
-      </c>
-      <c r="R14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B15" t="s">
-        <v>262</v>
-      </c>
-      <c r="C15">
-        <v>1500</v>
-      </c>
-      <c r="D15">
-        <v>90</v>
-      </c>
-      <c r="E15">
-        <v>64</v>
-      </c>
-      <c r="F15">
-        <v>52</v>
-      </c>
-      <c r="G15">
-        <v>45</v>
+      <c r="H15" s="38">
+        <v>1300</v>
+      </c>
+      <c r="I15" s="40">
+        <v>80</v>
+      </c>
+      <c r="J15" s="11">
+        <f>IFERROR(I15*$V$1,"")</f>
+        <v>56.666666640000003</v>
+      </c>
+      <c r="K15" s="11">
+        <f>IFERROR(I15*$W$1,"")</f>
+        <v>46.222222239999994</v>
+      </c>
+      <c r="L15" s="11">
+        <f>IFERROR(I15*$X$1,"")</f>
+        <v>40</v>
+      </c>
+      <c r="M15" s="41">
+        <v>1100</v>
+      </c>
+      <c r="N15" s="11">
+        <v>402</v>
+      </c>
+      <c r="O15" s="11">
+        <f>N15/2</f>
+        <v>201</v>
+      </c>
+      <c r="P15" s="11">
+        <f>N15/3</f>
+        <v>134</v>
+      </c>
+      <c r="Q15" s="12">
+        <f>N15/4</f>
+        <v>100.5</v>
       </c>
       <c r="R15">
+        <v>49</v>
+      </c>
+      <c r="S15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>263</v>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="B16" t="s">
-        <v>262</v>
+        <v>357</v>
       </c>
       <c r="C16">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="D16">
         <v>40</v>
@@ -16058,383 +16604,759 @@
       <c r="G16">
         <v>20</v>
       </c>
+      <c r="H16" s="38">
+        <v>1300</v>
+      </c>
+      <c r="I16" s="40">
+        <v>80</v>
+      </c>
+      <c r="J16" s="11">
+        <f>IFERROR(I16*$V$1,"")</f>
+        <v>56.666666640000003</v>
+      </c>
+      <c r="K16" s="11">
+        <f>IFERROR(I16*$W$1,"")</f>
+        <v>46.222222239999994</v>
+      </c>
+      <c r="L16" s="11">
+        <f>IFERROR(I16*$X$1,"")</f>
+        <v>40</v>
+      </c>
+      <c r="M16" s="41">
+        <v>1100</v>
+      </c>
+      <c r="N16" s="11">
+        <v>402</v>
+      </c>
+      <c r="O16" s="11">
+        <f>N16/2</f>
+        <v>201</v>
+      </c>
+      <c r="P16" s="11">
+        <f>N16/3</f>
+        <v>134</v>
+      </c>
+      <c r="Q16" s="12">
+        <f>N16/4</f>
+        <v>100.5</v>
+      </c>
       <c r="R16">
+        <v>69</v>
+      </c>
+      <c r="S16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>264</v>
+        <v>341</v>
       </c>
       <c r="B17" t="s">
-        <v>262</v>
+        <v>342</v>
       </c>
       <c r="C17">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="D17">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E17">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F17">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G17">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="H17" s="38">
+        <v>1700</v>
+      </c>
+      <c r="I17" s="40">
+        <v>50</v>
+      </c>
+      <c r="J17" s="11">
+        <f>IFERROR(I17*$V$1,"")</f>
+        <v>35.416666650000003</v>
+      </c>
+      <c r="K17" s="11">
+        <f>IFERROR(I17*$W$1,"")</f>
+        <v>28.888888899999998</v>
+      </c>
+      <c r="L17" s="11">
+        <f>IFERROR(I17*$X$1,"")</f>
+        <v>25</v>
+      </c>
+      <c r="M17" s="41">
+        <v>1700</v>
+      </c>
+      <c r="N17" s="11">
+        <v>450</v>
+      </c>
+      <c r="O17" s="11">
+        <f>N17/2</f>
+        <v>225</v>
+      </c>
+      <c r="P17" s="11">
+        <f>N17/3</f>
+        <v>150</v>
+      </c>
+      <c r="Q17" s="12">
+        <f>N17/4</f>
+        <v>112.5</v>
       </c>
       <c r="R17">
+        <v>61</v>
+      </c>
+      <c r="S17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>265</v>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="B18" t="s">
-        <v>265</v>
+        <v>344</v>
       </c>
       <c r="C18">
+        <v>1900</v>
+      </c>
+      <c r="D18">
+        <v>75</v>
+      </c>
+      <c r="E18">
+        <v>53</v>
+      </c>
+      <c r="F18">
+        <v>43</v>
+      </c>
+      <c r="G18">
+        <v>38</v>
+      </c>
+      <c r="H18" s="38">
+        <v>5000</v>
+      </c>
+      <c r="I18" s="40">
+        <v>140</v>
+      </c>
+      <c r="J18" s="11">
+        <f>IFERROR(I18*$V$1,"")</f>
+        <v>99.166666620000001</v>
+      </c>
+      <c r="K18" s="11">
+        <f>IFERROR(I18*$W$1,"")</f>
+        <v>80.888888919999999</v>
+      </c>
+      <c r="L18" s="11">
+        <f>IFERROR(I18*$X$1,"")</f>
+        <v>70</v>
+      </c>
+      <c r="M18" s="41">
+        <v>3000</v>
+      </c>
+      <c r="N18" s="11">
+        <v>250</v>
+      </c>
+      <c r="O18" s="11">
+        <f>N18/2</f>
+        <v>125</v>
+      </c>
+      <c r="P18" s="11">
+        <f>N18/3</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="Q18" s="12">
+        <f>N18/4</f>
+        <v>62.5</v>
+      </c>
+      <c r="R18">
+        <v>62</v>
+      </c>
+      <c r="S18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C19">
+        <v>1400</v>
+      </c>
+      <c r="D19">
+        <v>60</v>
+      </c>
+      <c r="E19">
+        <v>42</v>
+      </c>
+      <c r="F19">
+        <v>35</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="H19" s="38">
+        <v>3500</v>
+      </c>
+      <c r="I19" s="40">
+        <v>100</v>
+      </c>
+      <c r="J19" s="11">
+        <f>IFERROR(I19*$V$1,"")</f>
+        <v>70.833333300000007</v>
+      </c>
+      <c r="K19" s="11">
+        <f>IFERROR(I19*$W$1,"")</f>
+        <v>57.777777799999996</v>
+      </c>
+      <c r="L19" s="11">
+        <f>IFERROR(I19*$X$1,"")</f>
+        <v>50</v>
+      </c>
+      <c r="M19" s="41">
+        <v>2000</v>
+      </c>
+      <c r="N19" s="11">
+        <v>300</v>
+      </c>
+      <c r="O19" s="11">
+        <f>N19/2</f>
+        <v>150</v>
+      </c>
+      <c r="P19" s="11">
+        <f>N19/3</f>
+        <v>100</v>
+      </c>
+      <c r="Q19" s="12">
+        <f>N19/4</f>
+        <v>75</v>
+      </c>
+      <c r="R19">
+        <v>54</v>
+      </c>
+      <c r="S19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C20">
+        <v>5500</v>
+      </c>
+      <c r="D20">
+        <v>360</v>
+      </c>
+      <c r="E20">
+        <v>255</v>
+      </c>
+      <c r="F20">
+        <v>208</v>
+      </c>
+      <c r="G20">
+        <v>180</v>
+      </c>
+      <c r="H20" s="38">
+        <v>9000</v>
+      </c>
+      <c r="I20" s="40">
+        <v>360</v>
+      </c>
+      <c r="J20" s="11">
+        <f>IFERROR(I20*$V$1,"")</f>
+        <v>254.99999987999999</v>
+      </c>
+      <c r="K20" s="11">
+        <f>IFERROR(I20*$W$1,"")</f>
+        <v>208.00000007999998</v>
+      </c>
+      <c r="L20" s="11">
+        <f>IFERROR(I20*$X$1,"")</f>
+        <v>180</v>
+      </c>
+      <c r="M20" s="41">
+        <v>7000</v>
+      </c>
+      <c r="N20" s="11">
+        <v>650</v>
+      </c>
+      <c r="O20" s="11">
+        <f>N20/2</f>
+        <v>325</v>
+      </c>
+      <c r="P20" s="11">
+        <f>N20/3</f>
+        <v>216.66666666666666</v>
+      </c>
+      <c r="Q20" s="12">
+        <f>N20/4</f>
+        <v>162.5</v>
+      </c>
+      <c r="R20">
+        <v>56</v>
+      </c>
+      <c r="S20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>324</v>
+      </c>
+      <c r="B21" t="s">
+        <v>325</v>
+      </c>
+      <c r="C21">
         <v>500</v>
       </c>
-      <c r="D18">
-        <v>45</v>
-      </c>
-      <c r="E18">
-        <v>32</v>
-      </c>
-      <c r="F18">
-        <v>26</v>
-      </c>
-      <c r="G18">
-        <v>22</v>
-      </c>
-      <c r="R18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B19" t="s">
-        <v>267</v>
-      </c>
-      <c r="C19">
-        <v>750</v>
-      </c>
-      <c r="D19">
-        <v>40</v>
-      </c>
-      <c r="E19">
-        <v>28</v>
-      </c>
-      <c r="F19">
-        <v>23</v>
-      </c>
-      <c r="G19">
+      <c r="D21" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="E21" s="13">
+        <v>35</v>
+      </c>
+      <c r="F21" s="13">
+        <v>29</v>
+      </c>
+      <c r="G21" s="13">
+        <v>25</v>
+      </c>
+      <c r="H21" s="38">
+        <v>500</v>
+      </c>
+      <c r="I21" s="40">
+        <v>100</v>
+      </c>
+      <c r="J21" s="11">
+        <f>IFERROR(I21*$V$1,"")</f>
+        <v>70.833333300000007</v>
+      </c>
+      <c r="K21" s="11">
+        <f>IFERROR(I21*$W$1,"")</f>
+        <v>57.777777799999996</v>
+      </c>
+      <c r="L21" s="11">
+        <f>IFERROR(I21*$X$1,"")</f>
+        <v>50</v>
+      </c>
+      <c r="M21" s="41">
+        <v>500</v>
+      </c>
+      <c r="N21" s="11">
+        <v>522</v>
+      </c>
+      <c r="O21" s="11">
+        <f>N21/2</f>
+        <v>261</v>
+      </c>
+      <c r="P21" s="11">
+        <f>N21/3</f>
+        <v>174</v>
+      </c>
+      <c r="Q21" s="12">
+        <f>N21/4</f>
+        <v>130.5</v>
+      </c>
+      <c r="R21">
+        <v>53</v>
+      </c>
+      <c r="S21">
         <v>20</v>
       </c>
-      <c r="R19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>268</v>
-      </c>
-      <c r="B20" t="s">
-        <v>269</v>
-      </c>
-      <c r="C20">
-        <v>800</v>
-      </c>
-      <c r="D20">
-        <v>40</v>
-      </c>
-      <c r="E20">
-        <v>28</v>
-      </c>
-      <c r="F20">
-        <v>23</v>
-      </c>
-      <c r="G20">
-        <v>20</v>
-      </c>
-      <c r="R20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="B21" t="s">
-        <v>271</v>
-      </c>
-      <c r="C21">
-        <v>1000</v>
-      </c>
-      <c r="D21">
-        <v>60</v>
-      </c>
-      <c r="E21">
-        <v>42</v>
-      </c>
-      <c r="F21">
-        <v>35</v>
-      </c>
-      <c r="G21">
-        <v>30</v>
-      </c>
-      <c r="R21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>272</v>
+      <c r="T21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>308</v>
       </c>
       <c r="B22" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="C22">
         <v>800</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E22">
+        <v>71</v>
+      </c>
+      <c r="F22">
+        <v>58</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="H22" s="38">
+        <v>800</v>
+      </c>
+      <c r="I22" s="40">
+        <v>100</v>
+      </c>
+      <c r="J22" s="11">
+        <f>IFERROR(I22*$V$1,"")</f>
+        <v>70.833333300000007</v>
+      </c>
+      <c r="K22" s="11">
+        <f>IFERROR(I22*$W$1,"")</f>
+        <v>57.777777799999996</v>
+      </c>
+      <c r="L22" s="11">
+        <f>IFERROR(I22*$X$1,"")</f>
+        <v>50</v>
+      </c>
+      <c r="M22" s="41">
+        <v>500</v>
+      </c>
+      <c r="N22" s="11">
+        <v>521</v>
+      </c>
+      <c r="O22" s="11">
+        <f>N22/2</f>
+        <v>260.5</v>
+      </c>
+      <c r="P22" s="11">
+        <f>N22/3</f>
+        <v>173.66666666666666</v>
+      </c>
+      <c r="Q22" s="12">
+        <f>N22/4</f>
+        <v>130.25</v>
+      </c>
+      <c r="R22">
+        <v>45</v>
+      </c>
+      <c r="S22">
         <v>21</v>
       </c>
-      <c r="F22">
-        <v>17</v>
-      </c>
-      <c r="G22">
-        <v>15</v>
-      </c>
-      <c r="R22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>274</v>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>339</v>
       </c>
       <c r="B23" t="s">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="C23">
+        <v>250</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>28</v>
+      </c>
+      <c r="F23">
+        <v>23</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
+      <c r="H23" s="38">
+        <v>500</v>
+      </c>
+      <c r="I23" s="40">
+        <v>40</v>
+      </c>
+      <c r="J23" s="11">
+        <f>IFERROR(I23*$V$1,"")</f>
+        <v>28.333333320000001</v>
+      </c>
+      <c r="K23" s="11">
+        <f>IFERROR(I23*$W$1,"")</f>
+        <v>23.111111119999997</v>
+      </c>
+      <c r="L23" s="11">
+        <f>IFERROR(I23*$X$1,"")</f>
+        <v>20</v>
+      </c>
+      <c r="M23" s="41">
+        <v>500</v>
+      </c>
+      <c r="N23" s="11">
+        <v>102</v>
+      </c>
+      <c r="O23" s="11">
+        <f>N23/2</f>
+        <v>51</v>
+      </c>
+      <c r="P23" s="11">
+        <f>N23/3</f>
+        <v>34</v>
+      </c>
+      <c r="Q23" s="12">
+        <f>N23/4</f>
+        <v>25.5</v>
+      </c>
+      <c r="R23">
+        <v>59</v>
+      </c>
+      <c r="S23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>340</v>
+      </c>
+      <c r="B24" t="s">
+        <v>340</v>
+      </c>
+      <c r="C24">
+        <v>350</v>
+      </c>
+      <c r="D24">
+        <v>80</v>
+      </c>
+      <c r="E24">
+        <v>57</v>
+      </c>
+      <c r="F24">
+        <v>46</v>
+      </c>
+      <c r="G24">
+        <v>40</v>
+      </c>
+      <c r="H24" s="38">
         <v>1000</v>
       </c>
-      <c r="D23">
+      <c r="I24" s="40">
+        <v>80</v>
+      </c>
+      <c r="J24" s="11">
+        <f>IFERROR(I24*$V$1,"")</f>
+        <v>56.666666640000003</v>
+      </c>
+      <c r="K24" s="11">
+        <f>IFERROR(I24*$W$1,"")</f>
+        <v>46.222222239999994</v>
+      </c>
+      <c r="L24" s="11">
+        <f>IFERROR(I24*$X$1,"")</f>
+        <v>40</v>
+      </c>
+      <c r="M24" s="41">
+        <v>500</v>
+      </c>
+      <c r="N24" s="11">
+        <v>400</v>
+      </c>
+      <c r="O24" s="11">
+        <f>N24/2</f>
+        <v>200</v>
+      </c>
+      <c r="P24" s="11">
+        <f>N24/3</f>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="Q24" s="12">
+        <f>N24/4</f>
+        <v>100</v>
+      </c>
+      <c r="R24">
+        <v>60</v>
+      </c>
+      <c r="S24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B25" t="s">
+        <v>485</v>
+      </c>
+      <c r="H25" s="38">
+        <v>1000</v>
+      </c>
+      <c r="I25" s="40">
         <v>75</v>
       </c>
-      <c r="E23">
+      <c r="J25" s="11">
+        <f>IFERROR(I25*$V$1,"")</f>
+        <v>53.124999975000001</v>
+      </c>
+      <c r="K25" s="11">
+        <f>IFERROR(I25*$W$1,"")</f>
+        <v>43.333333349999997</v>
+      </c>
+      <c r="L25" s="11">
+        <f>IFERROR(I25*$X$1,"")</f>
+        <v>37.5</v>
+      </c>
+      <c r="M25" s="42"/>
+      <c r="N25" s="11">
+        <v>300</v>
+      </c>
+      <c r="O25" s="11">
+        <f>N25/2</f>
+        <v>150</v>
+      </c>
+      <c r="P25" s="11">
+        <f>N25/3</f>
+        <v>100</v>
+      </c>
+      <c r="Q25" s="12">
+        <f>N25/4</f>
+        <v>75</v>
+      </c>
+      <c r="R25">
+        <v>114</v>
+      </c>
+      <c r="S25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B26" t="s">
+        <v>243</v>
+      </c>
+      <c r="C26">
+        <v>800</v>
+      </c>
+      <c r="D26">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>28</v>
+      </c>
+      <c r="F26">
+        <v>23</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="R26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27">
+        <v>400</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>14</v>
+      </c>
+      <c r="F27">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B28" t="s">
+        <v>246</v>
+      </c>
+      <c r="C28">
+        <v>1000</v>
+      </c>
+      <c r="D28">
+        <v>75</v>
+      </c>
+      <c r="E28">
         <v>53</v>
       </c>
-      <c r="F23">
+      <c r="F28">
         <v>43</v>
       </c>
-      <c r="G23">
+      <c r="G28">
         <v>38</v>
       </c>
-      <c r="R23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B24" t="s">
-        <v>275</v>
-      </c>
-      <c r="C24">
-        <v>600</v>
-      </c>
-      <c r="D24">
-        <v>50</v>
-      </c>
-      <c r="E24">
-        <v>35</v>
-      </c>
-      <c r="F24">
-        <v>29</v>
-      </c>
-      <c r="G24">
-        <v>25</v>
-      </c>
-      <c r="R24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>277</v>
-      </c>
-      <c r="B25" t="s">
-        <v>278</v>
-      </c>
-      <c r="C25">
-        <v>800</v>
-      </c>
-      <c r="D25">
-        <v>120</v>
-      </c>
-      <c r="E25">
-        <v>85</v>
-      </c>
-      <c r="F25">
-        <v>69</v>
-      </c>
-      <c r="G25">
-        <v>60</v>
-      </c>
-      <c r="R25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B26" t="s">
-        <v>280</v>
-      </c>
-      <c r="C26">
-        <v>1000</v>
-      </c>
-      <c r="D26">
-        <v>60</v>
-      </c>
-      <c r="E26">
-        <v>42</v>
-      </c>
-      <c r="F26">
-        <v>35</v>
-      </c>
-      <c r="G26">
-        <v>30</v>
-      </c>
-      <c r="R26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="B27" t="s">
-        <v>280</v>
-      </c>
-      <c r="C27">
-        <v>800</v>
-      </c>
-      <c r="D27">
-        <v>30</v>
-      </c>
-      <c r="E27">
-        <v>21</v>
-      </c>
-      <c r="F27">
-        <v>17</v>
-      </c>
-      <c r="G27">
-        <v>15</v>
-      </c>
-      <c r="R27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B28" t="s">
-        <v>280</v>
-      </c>
-      <c r="C28">
-        <v>400</v>
-      </c>
-      <c r="D28">
-        <v>30</v>
-      </c>
-      <c r="E28">
-        <v>21</v>
-      </c>
-      <c r="F28">
-        <v>17</v>
-      </c>
-      <c r="G28">
-        <v>15</v>
-      </c>
       <c r="R28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>283</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="B29" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="C29">
         <v>600</v>
       </c>
       <c r="D29">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E29">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="F29">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="G29">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="R29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>284</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>248</v>
       </c>
       <c r="B30" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="C30">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D30">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E30">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F30">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G30">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>286</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="B31" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="C31">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="D31">
         <v>30</v>
@@ -16449,122 +17371,122 @@
         <v>15</v>
       </c>
       <c r="R31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B32" t="s">
+        <v>252</v>
+      </c>
+      <c r="C32">
+        <v>1500</v>
+      </c>
+      <c r="D32">
+        <v>90</v>
+      </c>
+      <c r="E32">
+        <v>64</v>
+      </c>
+      <c r="F32">
+        <v>52</v>
+      </c>
+      <c r="G32">
+        <v>45</v>
+      </c>
+      <c r="R32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" t="s">
+        <v>252</v>
+      </c>
+      <c r="C33">
+        <v>1800</v>
+      </c>
+      <c r="D33">
+        <v>140</v>
+      </c>
+      <c r="E33">
+        <v>99</v>
+      </c>
+      <c r="F33">
+        <v>81</v>
+      </c>
+      <c r="G33">
+        <v>70</v>
+      </c>
+      <c r="R33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34">
+        <v>600</v>
+      </c>
+      <c r="D34">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>287</v>
-      </c>
-      <c r="B32" t="s">
-        <v>288</v>
-      </c>
-      <c r="C32">
-        <v>750</v>
-      </c>
-      <c r="D32">
-        <v>40</v>
-      </c>
-      <c r="E32">
-        <v>28</v>
-      </c>
-      <c r="F32">
-        <v>23</v>
-      </c>
-      <c r="G32">
-        <v>20</v>
-      </c>
-      <c r="R32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>289</v>
-      </c>
-      <c r="B33" t="s">
-        <v>288</v>
-      </c>
-      <c r="C33">
-        <v>800</v>
-      </c>
-      <c r="D33">
-        <v>90</v>
-      </c>
-      <c r="E33">
-        <v>64</v>
-      </c>
-      <c r="F33">
-        <v>52</v>
-      </c>
-      <c r="G33">
-        <v>45</v>
-      </c>
-      <c r="R33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>290</v>
-      </c>
-      <c r="B34" t="s">
-        <v>291</v>
-      </c>
-      <c r="C34">
-        <v>400</v>
-      </c>
-      <c r="D34">
-        <v>60</v>
-      </c>
       <c r="E34">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F34">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G34">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="R34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>292</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="B35" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="C35">
         <v>1500</v>
       </c>
       <c r="D35">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E35">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F35">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G35">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="R35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>294</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="B36" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="C36">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="D36">
         <v>40</v>
@@ -16579,804 +17501,434 @@
         <v>20</v>
       </c>
       <c r="R36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37" t="s">
+        <v>256</v>
+      </c>
+      <c r="C37">
+        <v>400</v>
+      </c>
+      <c r="D37">
+        <v>30</v>
+      </c>
+      <c r="E37">
+        <v>21</v>
+      </c>
+      <c r="F37">
+        <v>17</v>
+      </c>
+      <c r="G37">
+        <v>15</v>
+      </c>
+      <c r="R37">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B38" t="s">
+        <v>260</v>
+      </c>
+      <c r="C38">
+        <v>1500</v>
+      </c>
+      <c r="D38">
+        <v>60</v>
+      </c>
+      <c r="E38">
+        <v>42</v>
+      </c>
+      <c r="F38">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>295</v>
-      </c>
-      <c r="B37" t="s">
-        <v>296</v>
-      </c>
-      <c r="C37">
+      <c r="G38">
+        <v>30</v>
+      </c>
+      <c r="R38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B39" t="s">
+        <v>262</v>
+      </c>
+      <c r="C39">
+        <v>1500</v>
+      </c>
+      <c r="D39">
+        <v>90</v>
+      </c>
+      <c r="E39">
+        <v>64</v>
+      </c>
+      <c r="F39">
+        <v>52</v>
+      </c>
+      <c r="G39">
+        <v>45</v>
+      </c>
+      <c r="R39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B40" t="s">
+        <v>262</v>
+      </c>
+      <c r="C40">
+        <v>600</v>
+      </c>
+      <c r="D40">
+        <v>40</v>
+      </c>
+      <c r="E40">
+        <v>28</v>
+      </c>
+      <c r="F40">
+        <v>23</v>
+      </c>
+      <c r="G40">
+        <v>20</v>
+      </c>
+      <c r="R40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B41" t="s">
+        <v>262</v>
+      </c>
+      <c r="C41">
+        <v>1500</v>
+      </c>
+      <c r="D41">
+        <v>90</v>
+      </c>
+      <c r="E41">
+        <v>64</v>
+      </c>
+      <c r="F41">
+        <v>52</v>
+      </c>
+      <c r="G41">
+        <v>45</v>
+      </c>
+      <c r="R41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>265</v>
+      </c>
+      <c r="B42" t="s">
+        <v>265</v>
+      </c>
+      <c r="C42">
         <v>500</v>
       </c>
-      <c r="D37">
+      <c r="D42">
+        <v>45</v>
+      </c>
+      <c r="E42">
+        <v>32</v>
+      </c>
+      <c r="F42">
+        <v>26</v>
+      </c>
+      <c r="G42">
+        <v>22</v>
+      </c>
+      <c r="R42">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B43" t="s">
+        <v>267</v>
+      </c>
+      <c r="C43">
+        <v>750</v>
+      </c>
+      <c r="D43">
+        <v>40</v>
+      </c>
+      <c r="E43">
+        <v>28</v>
+      </c>
+      <c r="F43">
+        <v>23</v>
+      </c>
+      <c r="G43">
+        <v>20</v>
+      </c>
+      <c r="R43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>268</v>
+      </c>
+      <c r="B44" t="s">
+        <v>269</v>
+      </c>
+      <c r="C44">
+        <v>800</v>
+      </c>
+      <c r="D44">
+        <v>40</v>
+      </c>
+      <c r="E44">
+        <v>28</v>
+      </c>
+      <c r="F44">
+        <v>23</v>
+      </c>
+      <c r="G44">
+        <v>20</v>
+      </c>
+      <c r="R44">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B45" t="s">
+        <v>271</v>
+      </c>
+      <c r="C45">
+        <v>1000</v>
+      </c>
+      <c r="D45">
+        <v>60</v>
+      </c>
+      <c r="E45">
+        <v>42</v>
+      </c>
+      <c r="F45">
         <v>35</v>
       </c>
-      <c r="E37">
+      <c r="G45">
+        <v>30</v>
+      </c>
+      <c r="R45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B46" t="s">
+        <v>273</v>
+      </c>
+      <c r="C46">
+        <v>800</v>
+      </c>
+      <c r="D46">
+        <v>30</v>
+      </c>
+      <c r="E46">
+        <v>21</v>
+      </c>
+      <c r="F46">
+        <v>17</v>
+      </c>
+      <c r="G46">
+        <v>15</v>
+      </c>
+      <c r="R46">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B47" t="s">
+        <v>275</v>
+      </c>
+      <c r="C47">
+        <v>1000</v>
+      </c>
+      <c r="D47">
+        <v>75</v>
+      </c>
+      <c r="E47">
+        <v>53</v>
+      </c>
+      <c r="F47">
+        <v>43</v>
+      </c>
+      <c r="G47">
+        <v>38</v>
+      </c>
+      <c r="R47">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" t="s">
+        <v>275</v>
+      </c>
+      <c r="C48">
+        <v>600</v>
+      </c>
+      <c r="D48">
+        <v>50</v>
+      </c>
+      <c r="E48">
+        <v>35</v>
+      </c>
+      <c r="F48">
+        <v>29</v>
+      </c>
+      <c r="G48">
         <v>25</v>
       </c>
-      <c r="F37">
-        <v>20</v>
-      </c>
-      <c r="G37">
-        <v>18</v>
-      </c>
-      <c r="R37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B38" t="s">
-        <v>298</v>
-      </c>
-      <c r="C38">
+      <c r="R48">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>277</v>
+      </c>
+      <c r="B49" t="s">
+        <v>278</v>
+      </c>
+      <c r="C49">
+        <v>800</v>
+      </c>
+      <c r="D49">
+        <v>120</v>
+      </c>
+      <c r="E49">
+        <v>85</v>
+      </c>
+      <c r="F49">
+        <v>69</v>
+      </c>
+      <c r="G49">
+        <v>60</v>
+      </c>
+      <c r="R49">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B50" t="s">
+        <v>280</v>
+      </c>
+      <c r="C50">
         <v>1000</v>
       </c>
-      <c r="D38">
-        <v>40</v>
-      </c>
-      <c r="E38">
-        <v>28</v>
-      </c>
-      <c r="F38">
-        <v>23</v>
-      </c>
-      <c r="G38">
-        <v>20</v>
-      </c>
-      <c r="R38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B39" t="s">
-        <v>298</v>
-      </c>
-      <c r="C39">
+      <c r="D50">
+        <v>60</v>
+      </c>
+      <c r="E50">
+        <v>42</v>
+      </c>
+      <c r="F50">
+        <v>35</v>
+      </c>
+      <c r="G50">
+        <v>30</v>
+      </c>
+      <c r="R50">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B51" t="s">
+        <v>280</v>
+      </c>
+      <c r="C51">
         <v>800</v>
       </c>
-      <c r="D39">
+      <c r="D51">
         <v>30</v>
       </c>
-      <c r="E39">
+      <c r="E51">
         <v>21</v>
       </c>
-      <c r="F39">
+      <c r="F51">
         <v>17</v>
       </c>
-      <c r="G39">
+      <c r="G51">
         <v>15</v>
       </c>
-      <c r="R39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="B40" t="s">
-        <v>298</v>
-      </c>
-      <c r="C40">
+      <c r="R51">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B52" t="s">
+        <v>280</v>
+      </c>
+      <c r="C52">
         <v>400</v>
       </c>
-      <c r="D40">
+      <c r="D52">
         <v>30</v>
       </c>
-      <c r="E40">
+      <c r="E52">
         <v>21</v>
       </c>
-      <c r="F40">
+      <c r="F52">
         <v>17</v>
       </c>
-      <c r="G40">
+      <c r="G52">
         <v>15</v>
       </c>
-      <c r="R40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B41" t="s">
-        <v>271</v>
-      </c>
-      <c r="C41">
-        <v>1000</v>
-      </c>
-      <c r="D41">
-        <v>75</v>
-      </c>
-      <c r="E41">
-        <v>53</v>
-      </c>
-      <c r="F41">
-        <v>43</v>
-      </c>
-      <c r="G41">
-        <v>38</v>
-      </c>
-      <c r="R41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B42" t="s">
-        <v>271</v>
-      </c>
-      <c r="C42">
+      <c r="R52">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>283</v>
+      </c>
+      <c r="B53" t="s">
+        <v>278</v>
+      </c>
+      <c r="C53">
         <v>600</v>
-      </c>
-      <c r="D42">
-        <v>50</v>
-      </c>
-      <c r="E42">
-        <v>35</v>
-      </c>
-      <c r="F42">
-        <v>29</v>
-      </c>
-      <c r="G42">
-        <v>25</v>
-      </c>
-      <c r="R42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="B43" t="s">
-        <v>323</v>
-      </c>
-      <c r="C43">
-        <v>100</v>
-      </c>
-      <c r="D43">
-        <v>35</v>
-      </c>
-      <c r="E43">
-        <v>25</v>
-      </c>
-      <c r="F43">
-        <v>20</v>
-      </c>
-      <c r="G43">
-        <v>18</v>
-      </c>
-      <c r="H43" s="38">
-        <v>500</v>
-      </c>
-      <c r="I43" s="40">
-        <v>20</v>
-      </c>
-      <c r="J43" s="11">
-        <f>IFERROR(I43*$V$1,"")</f>
-        <v>14.166666660000001</v>
-      </c>
-      <c r="K43" s="11">
-        <f>IFERROR(I43*$W$1,"")</f>
-        <v>11.555555559999998</v>
-      </c>
-      <c r="L43" s="11">
-        <f>IFERROR(I43*$X$1,"")</f>
-        <v>10</v>
-      </c>
-      <c r="M43" s="41"/>
-      <c r="N43" s="11">
-        <v>75</v>
-      </c>
-      <c r="O43" s="11">
-        <f>N43/2</f>
-        <v>37.5</v>
-      </c>
-      <c r="P43" s="11">
-        <f>N43/3</f>
-        <v>25</v>
-      </c>
-      <c r="Q43" s="12">
-        <f>N43/4</f>
-        <v>18.75</v>
-      </c>
-      <c r="R43">
-        <v>52</v>
-      </c>
-      <c r="S43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="B44" t="s">
-        <v>321</v>
-      </c>
-      <c r="C44">
-        <v>200</v>
-      </c>
-      <c r="D44">
-        <v>50</v>
-      </c>
-      <c r="E44">
-        <v>35</v>
-      </c>
-      <c r="F44">
-        <v>29</v>
-      </c>
-      <c r="G44">
-        <v>25</v>
-      </c>
-      <c r="H44" s="38">
-        <v>800</v>
-      </c>
-      <c r="I44" s="40">
-        <v>30</v>
-      </c>
-      <c r="J44" s="11">
-        <f>IFERROR(I44*$V$1,"")</f>
-        <v>21.249999989999999</v>
-      </c>
-      <c r="K44" s="11">
-        <f>IFERROR(I44*$W$1,"")</f>
-        <v>17.333333339999999</v>
-      </c>
-      <c r="L44" s="11">
-        <f>IFERROR(I44*$X$1,"")</f>
-        <v>15</v>
-      </c>
-      <c r="M44" s="41"/>
-      <c r="N44" s="11">
-        <v>126</v>
-      </c>
-      <c r="O44" s="11">
-        <f>N44/2</f>
-        <v>63</v>
-      </c>
-      <c r="P44" s="11">
-        <f>N44/3</f>
-        <v>42</v>
-      </c>
-      <c r="Q44" s="12">
-        <f>N44/4</f>
-        <v>31.5</v>
-      </c>
-      <c r="R44">
-        <v>51</v>
-      </c>
-      <c r="S44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="B45" t="s">
-        <v>314</v>
-      </c>
-      <c r="C45">
-        <v>400</v>
-      </c>
-      <c r="D45">
-        <v>90</v>
-      </c>
-      <c r="E45">
-        <v>64</v>
-      </c>
-      <c r="F45">
-        <v>52</v>
-      </c>
-      <c r="G45">
-        <v>45</v>
-      </c>
-      <c r="H45" s="38">
-        <v>1000</v>
-      </c>
-      <c r="I45" s="40">
-        <v>75</v>
-      </c>
-      <c r="J45" s="11">
-        <f>IFERROR(I45*$V$1,"")</f>
-        <v>53.124999975000001</v>
-      </c>
-      <c r="K45" s="11">
-        <f>IFERROR(I45*$W$1,"")</f>
-        <v>43.333333349999997</v>
-      </c>
-      <c r="L45" s="11">
-        <f>IFERROR(I45*$X$1,"")</f>
-        <v>37.5</v>
-      </c>
-      <c r="M45" s="41"/>
-      <c r="N45" s="11">
-        <v>300</v>
-      </c>
-      <c r="O45" s="11">
-        <f>N45/2</f>
-        <v>150</v>
-      </c>
-      <c r="P45" s="11">
-        <f>N45/3</f>
-        <v>100</v>
-      </c>
-      <c r="Q45" s="12">
-        <f>N45/4</f>
-        <v>75</v>
-      </c>
-      <c r="R45">
-        <v>48</v>
-      </c>
-      <c r="S45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="B46" t="s">
-        <v>307</v>
-      </c>
-      <c r="C46">
-        <v>500</v>
-      </c>
-      <c r="D46">
-        <v>100</v>
-      </c>
-      <c r="E46">
-        <v>71</v>
-      </c>
-      <c r="F46">
-        <v>58</v>
-      </c>
-      <c r="G46">
-        <v>50</v>
-      </c>
-      <c r="H46" s="38">
-        <v>1100</v>
-      </c>
-      <c r="I46" s="40">
-        <v>100</v>
-      </c>
-      <c r="J46" s="11">
-        <f>IFERROR(I46*$V$1,"")</f>
-        <v>70.833333300000007</v>
-      </c>
-      <c r="K46" s="11">
-        <f>IFERROR(I46*$W$1,"")</f>
-        <v>57.777777799999996</v>
-      </c>
-      <c r="L46" s="11">
-        <f>IFERROR(I46*$X$1,"")</f>
-        <v>50</v>
-      </c>
-      <c r="M46" s="41"/>
-      <c r="N46" s="11">
-        <v>402</v>
-      </c>
-      <c r="O46" s="11">
-        <f>N46/2</f>
-        <v>201</v>
-      </c>
-      <c r="P46" s="11">
-        <f>N46/3</f>
-        <v>134</v>
-      </c>
-      <c r="Q46" s="12">
-        <f>N46/4</f>
-        <v>100.5</v>
-      </c>
-      <c r="R46">
-        <v>44</v>
-      </c>
-      <c r="S46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="B47" t="s">
-        <v>358</v>
-      </c>
-      <c r="C47">
-        <v>500</v>
-      </c>
-      <c r="D47">
-        <v>100</v>
-      </c>
-      <c r="E47">
-        <v>71</v>
-      </c>
-      <c r="F47">
-        <v>58</v>
-      </c>
-      <c r="G47">
-        <v>50</v>
-      </c>
-      <c r="H47" s="38">
-        <v>1100</v>
-      </c>
-      <c r="I47" s="40">
-        <v>100</v>
-      </c>
-      <c r="J47" s="11">
-        <f>IFERROR(I47*$V$1,"")</f>
-        <v>70.833333300000007</v>
-      </c>
-      <c r="K47" s="11">
-        <f>IFERROR(I47*$W$1,"")</f>
-        <v>57.777777799999996</v>
-      </c>
-      <c r="L47" s="11">
-        <f>IFERROR(I47*$X$1,"")</f>
-        <v>50</v>
-      </c>
-      <c r="M47" s="41"/>
-      <c r="N47" s="11">
-        <v>401</v>
-      </c>
-      <c r="O47" s="11">
-        <f>N47/2</f>
-        <v>200.5</v>
-      </c>
-      <c r="P47" s="11">
-        <f>N47/3</f>
-        <v>133.66666666666666</v>
-      </c>
-      <c r="Q47" s="12">
-        <f>N47/4</f>
-        <v>100.25</v>
-      </c>
-      <c r="R47">
-        <v>70</v>
-      </c>
-      <c r="S47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B48" t="s">
-        <v>312</v>
-      </c>
-      <c r="C48">
-        <v>800</v>
-      </c>
-      <c r="D48">
-        <v>100</v>
-      </c>
-      <c r="E48">
-        <v>71</v>
-      </c>
-      <c r="F48">
-        <v>58</v>
-      </c>
-      <c r="G48">
-        <v>50</v>
-      </c>
-      <c r="H48" s="38">
-        <v>1500</v>
-      </c>
-      <c r="I48" s="40">
-        <v>75</v>
-      </c>
-      <c r="J48" s="11">
-        <f>IFERROR(I48*$V$1,"")</f>
-        <v>53.124999975000001</v>
-      </c>
-      <c r="K48" s="11">
-        <f>IFERROR(I48*$W$1,"")</f>
-        <v>43.333333349999997</v>
-      </c>
-      <c r="L48" s="11">
-        <f>IFERROR(I48*$X$1,"")</f>
-        <v>37.5</v>
-      </c>
-      <c r="M48" s="41"/>
-      <c r="N48" s="11">
-        <v>75</v>
-      </c>
-      <c r="O48" s="11">
-        <f>N48/2</f>
-        <v>37.5</v>
-      </c>
-      <c r="P48" s="11">
-        <f>N48/3</f>
-        <v>25</v>
-      </c>
-      <c r="Q48" s="12">
-        <f>N48/4</f>
-        <v>18.75</v>
-      </c>
-      <c r="R48">
-        <v>47</v>
-      </c>
-      <c r="S48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B49" t="s">
-        <v>310</v>
-      </c>
-      <c r="C49">
-        <v>900</v>
-      </c>
-      <c r="D49">
-        <v>90</v>
-      </c>
-      <c r="E49">
-        <v>64</v>
-      </c>
-      <c r="F49">
-        <v>52</v>
-      </c>
-      <c r="G49">
-        <v>45</v>
-      </c>
-      <c r="H49" s="38">
-        <v>1200</v>
-      </c>
-      <c r="I49" s="40">
-        <v>60</v>
-      </c>
-      <c r="J49" s="11">
-        <f>IFERROR(I49*$V$1,"")</f>
-        <v>42.499999979999998</v>
-      </c>
-      <c r="K49" s="11">
-        <f>IFERROR(I49*$W$1,"")</f>
-        <v>34.666666679999999</v>
-      </c>
-      <c r="L49" s="11">
-        <f>IFERROR(I49*$X$1,"")</f>
-        <v>30</v>
-      </c>
-      <c r="M49" s="41"/>
-      <c r="N49" s="11">
-        <v>200</v>
-      </c>
-      <c r="O49" s="11">
-        <f>N49/2</f>
-        <v>100</v>
-      </c>
-      <c r="P49" s="11">
-        <f>N49/3</f>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="Q49" s="12">
-        <f>N49/4</f>
-        <v>50</v>
-      </c>
-      <c r="R49">
-        <v>46</v>
-      </c>
-      <c r="S49">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B50" t="s">
-        <v>331</v>
-      </c>
-      <c r="C50">
-        <v>600</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E50" s="2">
-        <v>14</v>
-      </c>
-      <c r="F50" s="2">
-        <v>12</v>
-      </c>
-      <c r="G50" s="2">
-        <v>10</v>
-      </c>
-      <c r="H50" s="38">
-        <v>600</v>
-      </c>
-      <c r="I50" s="40">
-        <v>30</v>
-      </c>
-      <c r="J50" s="11">
-        <f>IFERROR(I50*$V$1,"")</f>
-        <v>21.249999989999999</v>
-      </c>
-      <c r="K50" s="11">
-        <f>IFERROR(I50*$W$1,"")</f>
-        <v>17.333333339999999</v>
-      </c>
-      <c r="L50" s="11">
-        <f>IFERROR(I50*$X$1,"")</f>
-        <v>15</v>
-      </c>
-      <c r="M50" s="41"/>
-      <c r="N50" s="11">
-        <v>250</v>
-      </c>
-      <c r="O50" s="11">
-        <f>N50/2</f>
-        <v>125</v>
-      </c>
-      <c r="P50" s="11">
-        <f>N50/3</f>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="Q50" s="12">
-        <f>N50/4</f>
-        <v>62.5</v>
-      </c>
-      <c r="R50">
-        <v>55</v>
-      </c>
-      <c r="S50">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B51" t="s">
-        <v>318</v>
-      </c>
-      <c r="C51">
-        <v>700</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E51" s="2">
-        <v>18</v>
-      </c>
-      <c r="F51" s="2">
-        <v>14</v>
-      </c>
-      <c r="G51" s="2">
-        <v>12</v>
-      </c>
-      <c r="H51" s="38">
-        <v>800</v>
-      </c>
-      <c r="I51" s="40">
-        <v>40</v>
-      </c>
-      <c r="J51" s="11">
-        <f>IFERROR(I51*$V$1,"")</f>
-        <v>28.333333320000001</v>
-      </c>
-      <c r="K51" s="11">
-        <f>IFERROR(I51*$W$1,"")</f>
-        <v>23.111111119999997</v>
-      </c>
-      <c r="L51" s="11">
-        <f>IFERROR(I51*$X$1,"")</f>
-        <v>20</v>
-      </c>
-      <c r="M51" s="41"/>
-      <c r="N51" s="11">
-        <v>302</v>
-      </c>
-      <c r="O51" s="11">
-        <f>N51/2</f>
-        <v>151</v>
-      </c>
-      <c r="P51" s="11">
-        <f>N51/3</f>
-        <v>100.66666666666667</v>
-      </c>
-      <c r="Q51" s="12">
-        <f>N51/4</f>
-        <v>75.5</v>
-      </c>
-      <c r="R51">
-        <v>50</v>
-      </c>
-      <c r="S51">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B52" t="s">
-        <v>338</v>
-      </c>
-      <c r="C52">
-        <v>700</v>
-      </c>
-      <c r="D52">
-        <v>70</v>
-      </c>
-      <c r="E52">
-        <v>49</v>
-      </c>
-      <c r="F52">
-        <v>40</v>
-      </c>
-      <c r="G52">
-        <v>35</v>
-      </c>
-      <c r="H52" s="38">
-        <v>1200</v>
-      </c>
-      <c r="I52" s="40">
-        <v>100</v>
-      </c>
-      <c r="J52" s="11">
-        <f>IFERROR(I52*$V$1,"")</f>
-        <v>70.833333300000007</v>
-      </c>
-      <c r="K52" s="11">
-        <f>IFERROR(I52*$W$1,"")</f>
-        <v>57.777777799999996</v>
-      </c>
-      <c r="L52" s="11">
-        <f>IFERROR(I52*$X$1,"")</f>
-        <v>50</v>
-      </c>
-      <c r="M52" s="41"/>
-      <c r="N52" s="11">
-        <v>300</v>
-      </c>
-      <c r="O52" s="11">
-        <f>N52/2</f>
-        <v>150</v>
-      </c>
-      <c r="P52" s="11">
-        <f>N52/3</f>
-        <v>100</v>
-      </c>
-      <c r="Q52" s="12">
-        <f>N52/4</f>
-        <v>75</v>
-      </c>
-      <c r="R52">
-        <v>58</v>
-      </c>
-      <c r="S52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B53" t="s">
-        <v>306</v>
-      </c>
-      <c r="C53">
-        <v>800</v>
       </c>
       <c r="D53">
         <v>100</v>
@@ -17390,182 +17942,71 @@
       <c r="G53">
         <v>50</v>
       </c>
-      <c r="H53" s="38">
-        <v>1300</v>
-      </c>
-      <c r="I53" s="40">
-        <v>75</v>
-      </c>
-      <c r="J53" s="11">
-        <f>IFERROR(I53*$V$1,"")</f>
-        <v>53.124999975000001</v>
-      </c>
-      <c r="K53" s="11">
-        <f>IFERROR(I53*$W$1,"")</f>
-        <v>43.333333349999997</v>
-      </c>
-      <c r="L53" s="11">
-        <f>IFERROR(I53*$X$1,"")</f>
-        <v>37.5</v>
-      </c>
-      <c r="M53" s="41"/>
-      <c r="N53" s="11">
-        <v>100</v>
-      </c>
-      <c r="O53" s="11">
-        <f>N53/2</f>
+      <c r="R53">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B54" t="s">
+        <v>285</v>
+      </c>
+      <c r="C54">
+        <v>1000</v>
+      </c>
+      <c r="D54">
         <v>50</v>
       </c>
-      <c r="P53" s="11">
-        <f>N53/3</f>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="Q53" s="12">
-        <f>N53/4</f>
+      <c r="E54">
+        <v>35</v>
+      </c>
+      <c r="F54">
+        <v>29</v>
+      </c>
+      <c r="G54">
         <v>25</v>
       </c>
-      <c r="R53">
-        <v>43</v>
-      </c>
-      <c r="S53">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B54" t="s">
-        <v>304</v>
-      </c>
-      <c r="C54">
-        <v>1400</v>
-      </c>
-      <c r="D54">
-        <v>120</v>
-      </c>
-      <c r="E54">
-        <v>85</v>
-      </c>
-      <c r="F54">
-        <v>69</v>
-      </c>
-      <c r="G54">
-        <v>60</v>
-      </c>
-      <c r="H54" s="38">
-        <v>1500</v>
-      </c>
-      <c r="I54" s="40">
-        <v>90</v>
-      </c>
-      <c r="J54" s="11">
-        <f>IFERROR(I54*$V$1,"")</f>
-        <v>63.749999969999998</v>
-      </c>
-      <c r="K54" s="11">
-        <f>IFERROR(I54*$W$1,"")</f>
-        <v>52.000000019999995</v>
-      </c>
-      <c r="L54" s="11">
-        <f>IFERROR(I54*$X$1,"")</f>
-        <v>45</v>
-      </c>
-      <c r="M54" s="41"/>
-      <c r="N54" s="11">
-        <v>322</v>
-      </c>
-      <c r="O54" s="11">
-        <f>N54/2</f>
-        <v>161</v>
-      </c>
-      <c r="P54" s="11">
-        <f>N54/3</f>
-        <v>107.33333333333333</v>
-      </c>
-      <c r="Q54" s="12">
-        <f>N54/4</f>
-        <v>80.5</v>
-      </c>
       <c r="R54">
-        <v>42</v>
-      </c>
-      <c r="S54">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>335</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="B55" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="C55">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="D55">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E55">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="F55">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G55">
-        <v>45</v>
-      </c>
-      <c r="H55" s="38">
-        <v>2000</v>
-      </c>
-      <c r="I55" s="40">
-        <v>120</v>
-      </c>
-      <c r="J55" s="11">
-        <f>IFERROR(I55*$V$1,"")</f>
-        <v>84.999999959999997</v>
-      </c>
-      <c r="K55" s="11">
-        <f>IFERROR(I55*$W$1,"")</f>
-        <v>69.333333359999997</v>
-      </c>
-      <c r="L55" s="11">
-        <f>IFERROR(I55*$X$1,"")</f>
-        <v>60</v>
-      </c>
-      <c r="M55" s="41"/>
-      <c r="N55" s="11">
-        <v>450</v>
-      </c>
-      <c r="O55" s="11">
-        <f>N55/2</f>
-        <v>225</v>
-      </c>
-      <c r="P55" s="11">
-        <f>N55/3</f>
-        <v>150</v>
-      </c>
-      <c r="Q55" s="12">
-        <f>N55/4</f>
-        <v>112.5</v>
+        <v>15</v>
       </c>
       <c r="R55">
-        <v>57</v>
-      </c>
-      <c r="S55">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>315</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>287</v>
       </c>
       <c r="B56" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="C56">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="D56">
         <v>40</v>
@@ -17579,613 +18020,305 @@
       <c r="G56">
         <v>20</v>
       </c>
-      <c r="H56" s="38">
-        <v>1300</v>
-      </c>
-      <c r="I56" s="40">
-        <v>80</v>
-      </c>
-      <c r="J56" s="11">
-        <f>IFERROR(I56*$V$1,"")</f>
-        <v>56.666666640000003</v>
-      </c>
-      <c r="K56" s="11">
-        <f>IFERROR(I56*$W$1,"")</f>
-        <v>46.222222239999994</v>
-      </c>
-      <c r="L56" s="11">
-        <f>IFERROR(I56*$X$1,"")</f>
+      <c r="R56">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>289</v>
+      </c>
+      <c r="B57" t="s">
+        <v>288</v>
+      </c>
+      <c r="C57">
+        <v>800</v>
+      </c>
+      <c r="D57">
+        <v>90</v>
+      </c>
+      <c r="E57">
+        <v>64</v>
+      </c>
+      <c r="F57">
+        <v>52</v>
+      </c>
+      <c r="G57">
+        <v>45</v>
+      </c>
+      <c r="R57">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>290</v>
+      </c>
+      <c r="B58" t="s">
+        <v>291</v>
+      </c>
+      <c r="C58">
+        <v>400</v>
+      </c>
+      <c r="D58">
+        <v>60</v>
+      </c>
+      <c r="E58">
+        <v>42</v>
+      </c>
+      <c r="F58">
+        <v>35</v>
+      </c>
+      <c r="G58">
+        <v>30</v>
+      </c>
+      <c r="R58">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B59" t="s">
+        <v>293</v>
+      </c>
+      <c r="C59">
+        <v>1500</v>
+      </c>
+      <c r="D59">
+        <v>70</v>
+      </c>
+      <c r="E59">
+        <v>49</v>
+      </c>
+      <c r="F59">
         <v>40</v>
       </c>
-      <c r="M56" s="41"/>
-      <c r="N56" s="11">
-        <v>402</v>
-      </c>
-      <c r="O56" s="11">
-        <f>N56/2</f>
-        <v>201</v>
-      </c>
-      <c r="P56" s="11">
-        <f>N56/3</f>
-        <v>134</v>
-      </c>
-      <c r="Q56" s="12">
-        <f>N56/4</f>
-        <v>100.5</v>
-      </c>
-      <c r="R56">
-        <v>49</v>
-      </c>
-      <c r="S56">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B57" t="s">
-        <v>357</v>
-      </c>
-      <c r="C57">
-        <v>1100</v>
-      </c>
-      <c r="D57">
+      <c r="G59">
+        <v>35</v>
+      </c>
+      <c r="R59">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>294</v>
+      </c>
+      <c r="B60" t="s">
+        <v>293</v>
+      </c>
+      <c r="C60">
+        <v>500</v>
+      </c>
+      <c r="D60">
         <v>40</v>
       </c>
-      <c r="E57">
+      <c r="E60">
         <v>28</v>
       </c>
-      <c r="F57">
+      <c r="F60">
         <v>23</v>
       </c>
-      <c r="G57">
+      <c r="G60">
         <v>20</v>
       </c>
-      <c r="H57" s="38">
-        <v>1300</v>
-      </c>
-      <c r="I57" s="40">
-        <v>80</v>
-      </c>
-      <c r="J57" s="11">
-        <f>IFERROR(I57*$V$1,"")</f>
-        <v>56.666666640000003</v>
-      </c>
-      <c r="K57" s="11">
-        <f>IFERROR(I57*$W$1,"")</f>
-        <v>46.222222239999994</v>
-      </c>
-      <c r="L57" s="11">
-        <f>IFERROR(I57*$X$1,"")</f>
+      <c r="R60">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>295</v>
+      </c>
+      <c r="B61" t="s">
+        <v>296</v>
+      </c>
+      <c r="C61">
+        <v>500</v>
+      </c>
+      <c r="D61">
+        <v>35</v>
+      </c>
+      <c r="E61">
+        <v>25</v>
+      </c>
+      <c r="F61">
+        <v>20</v>
+      </c>
+      <c r="G61">
+        <v>18</v>
+      </c>
+      <c r="R61">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B62" t="s">
+        <v>298</v>
+      </c>
+      <c r="C62">
+        <v>1000</v>
+      </c>
+      <c r="D62">
         <v>40</v>
       </c>
-      <c r="M57" s="41"/>
-      <c r="N57" s="11">
-        <v>402</v>
-      </c>
-      <c r="O57" s="11">
-        <f>N57/2</f>
-        <v>201</v>
-      </c>
-      <c r="P57" s="11">
-        <f>N57/3</f>
-        <v>134</v>
-      </c>
-      <c r="Q57" s="12">
-        <f>N57/4</f>
-        <v>100.5</v>
-      </c>
-      <c r="R57">
-        <v>69</v>
-      </c>
-      <c r="S57">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B58" t="s">
-        <v>342</v>
-      </c>
-      <c r="C58">
-        <v>1300</v>
-      </c>
-      <c r="D58">
-        <v>100</v>
-      </c>
-      <c r="E58">
-        <v>71</v>
-      </c>
-      <c r="F58">
-        <v>58</v>
-      </c>
-      <c r="G58">
-        <v>50</v>
-      </c>
-      <c r="H58" s="38">
-        <v>1700</v>
-      </c>
-      <c r="I58" s="40">
-        <v>50</v>
-      </c>
-      <c r="J58" s="11">
-        <f>IFERROR(I58*$V$1,"")</f>
-        <v>35.416666650000003</v>
-      </c>
-      <c r="K58" s="11">
-        <f>IFERROR(I58*$W$1,"")</f>
-        <v>28.888888899999998</v>
-      </c>
-      <c r="L58" s="11">
-        <f>IFERROR(I58*$X$1,"")</f>
-        <v>25</v>
-      </c>
-      <c r="M58" s="41"/>
-      <c r="N58" s="11">
-        <v>450</v>
-      </c>
-      <c r="O58" s="11">
-        <f>N58/2</f>
-        <v>225</v>
-      </c>
-      <c r="P58" s="11">
-        <f>N58/3</f>
-        <v>150</v>
-      </c>
-      <c r="Q58" s="12">
-        <f>N58/4</f>
-        <v>112.5</v>
-      </c>
-      <c r="R58">
-        <v>61</v>
-      </c>
-      <c r="S58">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="B59" t="s">
-        <v>344</v>
-      </c>
-      <c r="C59">
-        <v>1900</v>
-      </c>
-      <c r="D59">
-        <v>75</v>
-      </c>
-      <c r="E59">
-        <v>53</v>
-      </c>
-      <c r="F59">
-        <v>43</v>
-      </c>
-      <c r="G59">
-        <v>38</v>
-      </c>
-      <c r="H59" s="38">
-        <v>5000</v>
-      </c>
-      <c r="I59" s="40">
-        <v>140</v>
-      </c>
-      <c r="J59" s="11">
-        <f>IFERROR(I59*$V$1,"")</f>
-        <v>99.166666620000001</v>
-      </c>
-      <c r="K59" s="11">
-        <f>IFERROR(I59*$W$1,"")</f>
-        <v>80.888888919999999</v>
-      </c>
-      <c r="L59" s="11">
-        <f>IFERROR(I59*$X$1,"")</f>
-        <v>70</v>
-      </c>
-      <c r="M59" s="41"/>
-      <c r="N59" s="11">
-        <v>250</v>
-      </c>
-      <c r="O59" s="11">
-        <f>N59/2</f>
-        <v>125</v>
-      </c>
-      <c r="P59" s="11">
-        <f>N59/3</f>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="Q59" s="12">
-        <f>N59/4</f>
-        <v>62.5</v>
-      </c>
-      <c r="R59">
-        <v>62</v>
-      </c>
-      <c r="S59">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="B60" t="s">
-        <v>329</v>
-      </c>
-      <c r="C60">
-        <v>1400</v>
-      </c>
-      <c r="D60">
-        <v>60</v>
-      </c>
-      <c r="E60">
-        <v>42</v>
-      </c>
-      <c r="F60">
-        <v>35</v>
-      </c>
-      <c r="G60">
-        <v>30</v>
-      </c>
-      <c r="H60" s="38">
-        <v>3500</v>
-      </c>
-      <c r="I60" s="40">
-        <v>100</v>
-      </c>
-      <c r="J60" s="11">
-        <f>IFERROR(I60*$V$1,"")</f>
-        <v>70.833333300000007</v>
-      </c>
-      <c r="K60" s="11">
-        <f>IFERROR(I60*$W$1,"")</f>
-        <v>57.777777799999996</v>
-      </c>
-      <c r="L60" s="11">
-        <f>IFERROR(I60*$X$1,"")</f>
-        <v>50</v>
-      </c>
-      <c r="M60" s="41"/>
-      <c r="N60" s="11">
-        <v>300</v>
-      </c>
-      <c r="O60" s="11">
-        <f>N60/2</f>
-        <v>150</v>
-      </c>
-      <c r="P60" s="11">
-        <f>N60/3</f>
-        <v>100</v>
-      </c>
-      <c r="Q60" s="12">
-        <f>N60/4</f>
-        <v>75</v>
-      </c>
-      <c r="R60">
-        <v>54</v>
-      </c>
-      <c r="S60">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B61" t="s">
-        <v>334</v>
-      </c>
-      <c r="C61">
-        <v>5500</v>
-      </c>
-      <c r="D61">
-        <v>360</v>
-      </c>
-      <c r="E61">
-        <v>255</v>
-      </c>
-      <c r="F61">
-        <v>208</v>
-      </c>
-      <c r="G61">
-        <v>180</v>
-      </c>
-      <c r="H61" s="38">
-        <v>9000</v>
-      </c>
-      <c r="I61" s="40">
-        <v>360</v>
-      </c>
-      <c r="J61" s="11">
-        <f>IFERROR(I61*$V$1,"")</f>
-        <v>254.99999987999999</v>
-      </c>
-      <c r="K61" s="11">
-        <f>IFERROR(I61*$W$1,"")</f>
-        <v>208.00000007999998</v>
-      </c>
-      <c r="L61" s="11">
-        <f>IFERROR(I61*$X$1,"")</f>
-        <v>180</v>
-      </c>
-      <c r="M61" s="41"/>
-      <c r="N61" s="11">
-        <v>650</v>
-      </c>
-      <c r="O61" s="11">
-        <f>N61/2</f>
-        <v>325</v>
-      </c>
-      <c r="P61" s="11">
-        <f>N61/3</f>
-        <v>216.66666666666666</v>
-      </c>
-      <c r="Q61" s="12">
-        <f>N61/4</f>
-        <v>162.5</v>
-      </c>
-      <c r="R61">
-        <v>56</v>
-      </c>
-      <c r="S61">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>324</v>
-      </c>
-      <c r="B62" t="s">
-        <v>325</v>
-      </c>
-      <c r="C62">
-        <v>500</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="E62" s="13">
-        <v>35</v>
-      </c>
-      <c r="F62" s="13">
-        <v>29</v>
-      </c>
-      <c r="G62" s="13">
-        <v>25</v>
-      </c>
-      <c r="H62" s="38">
-        <v>500</v>
-      </c>
-      <c r="I62" s="40">
-        <v>100</v>
-      </c>
-      <c r="J62" s="11">
-        <f>IFERROR(I62*$V$1,"")</f>
-        <v>70.833333300000007</v>
-      </c>
-      <c r="K62" s="11">
-        <f>IFERROR(I62*$W$1,"")</f>
-        <v>57.777777799999996</v>
-      </c>
-      <c r="L62" s="11">
-        <f>IFERROR(I62*$X$1,"")</f>
-        <v>50</v>
-      </c>
-      <c r="M62" s="41"/>
-      <c r="N62" s="11">
-        <v>522</v>
-      </c>
-      <c r="O62" s="11">
-        <f>N62/2</f>
-        <v>261</v>
-      </c>
-      <c r="P62" s="11">
-        <f>N62/3</f>
-        <v>174</v>
-      </c>
-      <c r="Q62" s="12">
-        <f>N62/4</f>
-        <v>130.5</v>
+      <c r="E62">
+        <v>28</v>
+      </c>
+      <c r="F62">
+        <v>23</v>
+      </c>
+      <c r="G62">
+        <v>20</v>
       </c>
       <c r="R62">
-        <v>53</v>
-      </c>
-      <c r="S62">
-        <v>20</v>
-      </c>
-      <c r="T62" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>308</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="B63" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C63">
         <v>800</v>
       </c>
       <c r="D63">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E63">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="F63">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="G63">
+        <v>15</v>
+      </c>
+      <c r="R63">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B64" t="s">
+        <v>298</v>
+      </c>
+      <c r="C64">
+        <v>400</v>
+      </c>
+      <c r="D64">
+        <v>30</v>
+      </c>
+      <c r="E64">
+        <v>21</v>
+      </c>
+      <c r="F64">
+        <v>17</v>
+      </c>
+      <c r="G64">
+        <v>15</v>
+      </c>
+      <c r="R64">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B65" t="s">
+        <v>271</v>
+      </c>
+      <c r="C65">
+        <v>1000</v>
+      </c>
+      <c r="D65">
+        <v>75</v>
+      </c>
+      <c r="E65">
+        <v>53</v>
+      </c>
+      <c r="F65">
+        <v>43</v>
+      </c>
+      <c r="G65">
+        <v>38</v>
+      </c>
+      <c r="R65">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B66" t="s">
+        <v>271</v>
+      </c>
+      <c r="C66">
+        <v>600</v>
+      </c>
+      <c r="D66">
         <v>50</v>
       </c>
-      <c r="H63" s="38">
-        <v>800</v>
-      </c>
-      <c r="I63" s="40">
-        <v>100</v>
-      </c>
-      <c r="J63" s="11">
-        <f>IFERROR(I63*$V$1,"")</f>
-        <v>70.833333300000007</v>
-      </c>
-      <c r="K63" s="11">
-        <f>IFERROR(I63*$W$1,"")</f>
-        <v>57.777777799999996</v>
-      </c>
-      <c r="L63" s="11">
-        <f>IFERROR(I63*$X$1,"")</f>
-        <v>50</v>
-      </c>
-      <c r="M63" s="41"/>
-      <c r="N63" s="11">
-        <v>521</v>
-      </c>
-      <c r="O63" s="11">
-        <f>N63/2</f>
-        <v>260.5</v>
-      </c>
-      <c r="P63" s="11">
-        <f>N63/3</f>
-        <v>173.66666666666666</v>
-      </c>
-      <c r="Q63" s="12">
-        <f>N63/4</f>
-        <v>130.25</v>
-      </c>
-      <c r="R63">
-        <v>45</v>
-      </c>
-      <c r="S63">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="E66">
+        <v>35</v>
+      </c>
+      <c r="F66">
+        <v>29</v>
+      </c>
+      <c r="G66">
+        <v>25</v>
+      </c>
+      <c r="R66">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>345</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B67" t="s">
         <v>346</v>
       </c>
-      <c r="C64">
+      <c r="C67">
         <v>1400</v>
       </c>
-      <c r="D64">
+      <c r="D67">
         <v>120</v>
       </c>
-      <c r="E64">
+      <c r="E67">
         <v>85</v>
       </c>
-      <c r="F64">
+      <c r="F67">
         <v>69</v>
       </c>
-      <c r="G64">
+      <c r="G67">
         <v>60</v>
-      </c>
-      <c r="H64" t="s">
-        <v>197</v>
-      </c>
-      <c r="R64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>347</v>
-      </c>
-      <c r="B65" t="s">
-        <v>348</v>
-      </c>
-      <c r="C65">
-        <v>800</v>
-      </c>
-      <c r="D65">
-        <v>100</v>
-      </c>
-      <c r="E65">
-        <v>71</v>
-      </c>
-      <c r="F65">
-        <v>58</v>
-      </c>
-      <c r="G65">
-        <v>50</v>
-      </c>
-      <c r="H65" t="s">
-        <v>197</v>
-      </c>
-      <c r="R65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>349</v>
-      </c>
-      <c r="B66" t="s">
-        <v>349</v>
-      </c>
-      <c r="C66">
-        <v>800</v>
-      </c>
-      <c r="D66">
-        <v>100</v>
-      </c>
-      <c r="E66">
-        <v>71</v>
-      </c>
-      <c r="F66">
-        <v>58</v>
-      </c>
-      <c r="G66">
-        <v>50</v>
-      </c>
-      <c r="H66" t="s">
-        <v>197</v>
-      </c>
-      <c r="R66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>350</v>
-      </c>
-      <c r="B67" t="s">
-        <v>351</v>
-      </c>
-      <c r="C67">
-        <v>900</v>
-      </c>
-      <c r="D67">
-        <v>90</v>
-      </c>
-      <c r="E67">
-        <v>64</v>
-      </c>
-      <c r="F67">
-        <v>52</v>
-      </c>
-      <c r="G67">
-        <v>45</v>
       </c>
       <c r="H67" t="s">
         <v>197</v>
       </c>
       <c r="R67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B68" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C68">
         <v>800</v>
@@ -18206,732 +18339,667 @@
         <v>197</v>
       </c>
       <c r="R68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B69" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C69">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="D69">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E69">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F69">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G69">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H69" t="s">
         <v>197</v>
       </c>
       <c r="R69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="B70" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C70">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="D70">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="E70">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="F70">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="G70">
-        <v>20</v>
-      </c>
-      <c r="H70" s="38">
-        <v>500</v>
-      </c>
-      <c r="I70" s="40">
-        <v>40</v>
-      </c>
-      <c r="J70" s="11">
-        <f>IFERROR(I70*$V$1,"")</f>
-        <v>28.333333320000001</v>
-      </c>
-      <c r="K70" s="11">
-        <f>IFERROR(I70*$W$1,"")</f>
-        <v>23.111111119999997</v>
-      </c>
-      <c r="L70" s="11">
-        <f>IFERROR(I70*$X$1,"")</f>
-        <v>20</v>
-      </c>
-      <c r="M70" s="41"/>
-      <c r="N70" s="11">
-        <v>102</v>
-      </c>
-      <c r="O70" s="11">
-        <f>N70/2</f>
-        <v>51</v>
-      </c>
-      <c r="P70" s="11">
-        <f>N70/3</f>
-        <v>34</v>
-      </c>
-      <c r="Q70" s="12">
-        <f>N70/4</f>
-        <v>25.5</v>
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>197</v>
       </c>
       <c r="R70">
-        <v>59</v>
-      </c>
-      <c r="S70">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="B71" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="C71">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="D71">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E71">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F71">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G71">
-        <v>40</v>
-      </c>
-      <c r="H71" s="38">
-        <v>1000</v>
-      </c>
-      <c r="I71" s="40">
-        <v>80</v>
-      </c>
-      <c r="J71" s="11">
-        <f>IFERROR(I71*$V$1,"")</f>
-        <v>56.666666640000003</v>
-      </c>
-      <c r="K71" s="11">
-        <f>IFERROR(I71*$W$1,"")</f>
-        <v>46.222222239999994</v>
-      </c>
-      <c r="L71" s="11">
-        <f>IFERROR(I71*$X$1,"")</f>
-        <v>40</v>
-      </c>
-      <c r="M71" s="41"/>
-      <c r="N71" s="11">
+        <v>50</v>
+      </c>
+      <c r="H71" t="s">
+        <v>197</v>
+      </c>
+      <c r="R71">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>354</v>
+      </c>
+      <c r="B72" t="s">
+        <v>355</v>
+      </c>
+      <c r="C72">
         <v>400</v>
       </c>
-      <c r="O71" s="11">
-        <f>N71/2</f>
-        <v>200</v>
-      </c>
-      <c r="P71" s="11">
-        <f>N71/3</f>
-        <v>133.33333333333334</v>
-      </c>
-      <c r="Q71" s="12">
-        <f>N71/4</f>
-        <v>100</v>
-      </c>
-      <c r="R71">
-        <v>60</v>
-      </c>
-      <c r="S71">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>359</v>
-      </c>
-      <c r="B72" t="s">
-        <v>360</v>
-      </c>
-      <c r="C72">
-        <v>700</v>
-      </c>
       <c r="D72">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E72">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F72">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="G72">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="H72" t="s">
         <v>197</v>
       </c>
       <c r="R72">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B73" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C73">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="D73">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E73">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="F73">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G73">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H73" t="s">
         <v>197</v>
       </c>
       <c r="R73">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B74" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C74">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D74">
+        <v>50</v>
+      </c>
+      <c r="E74">
         <v>35</v>
       </c>
-      <c r="E74">
+      <c r="F74">
+        <v>29</v>
+      </c>
+      <c r="G74">
         <v>25</v>
-      </c>
-      <c r="F74">
-        <v>20</v>
-      </c>
-      <c r="G74">
-        <v>18</v>
       </c>
       <c r="H74" t="s">
         <v>197</v>
       </c>
       <c r="R74">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B75" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C75">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D75">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E75">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F75">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G75">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H75" t="s">
         <v>197</v>
       </c>
       <c r="R75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B76" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C76">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="D76">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E76">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F76">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G76">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H76" t="s">
         <v>197</v>
       </c>
       <c r="R76">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B77" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C77">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="D77">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E77">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F77">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="G77">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H77" t="s">
         <v>197</v>
       </c>
       <c r="R77">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B78" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C78">
-        <v>5500</v>
+        <v>600</v>
       </c>
       <c r="D78">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="E78">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="F78">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="G78">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="H78" t="s">
         <v>197</v>
       </c>
       <c r="R78">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B79" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C79">
-        <v>1000</v>
+        <v>5500</v>
       </c>
       <c r="D79">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="E79">
-        <v>64</v>
+        <v>255</v>
       </c>
       <c r="F79">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="G79">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="H79" t="s">
         <v>197</v>
       </c>
       <c r="R79">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B80" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C80">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="D80">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E80">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F80">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G80">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H80" t="s">
         <v>197</v>
       </c>
       <c r="R80">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B81" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C81">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="D81">
+        <v>70</v>
+      </c>
+      <c r="E81">
+        <v>49</v>
+      </c>
+      <c r="F81">
         <v>40</v>
       </c>
-      <c r="E81">
-        <v>28</v>
-      </c>
-      <c r="F81">
-        <v>23</v>
-      </c>
       <c r="G81">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="H81" t="s">
         <v>197</v>
       </c>
       <c r="R81">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B82" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C82">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="D82">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E82">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="F82">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="G82">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H82" t="s">
         <v>197</v>
       </c>
       <c r="R82">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B83" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C83">
-        <v>1300</v>
+        <v>350</v>
       </c>
       <c r="D83">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E83">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F83">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G83">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H83" t="s">
         <v>197</v>
       </c>
       <c r="R83">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B84" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C84">
-        <v>1900</v>
+        <v>1300</v>
       </c>
       <c r="D84">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="E84">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F84">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G84">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="H84" t="s">
         <v>197</v>
       </c>
       <c r="R84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>381</v>
+      </c>
+      <c r="B85" t="s">
+        <v>382</v>
+      </c>
+      <c r="C85">
+        <v>1900</v>
+      </c>
+      <c r="D85">
+        <v>75</v>
+      </c>
+      <c r="E85">
+        <v>53</v>
+      </c>
+      <c r="F85">
+        <v>43</v>
+      </c>
+      <c r="G85">
+        <v>38</v>
+      </c>
+      <c r="H85" t="s">
+        <v>197</v>
+      </c>
+      <c r="R85">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>384</v>
       </c>
-      <c r="C85">
+      <c r="C86">
         <v>2500</v>
       </c>
-      <c r="D85">
+      <c r="D86">
         <v>200</v>
       </c>
-      <c r="E85">
+      <c r="E86">
         <v>141</v>
       </c>
-      <c r="F85">
+      <c r="F86">
         <v>115</v>
       </c>
-      <c r="G85">
+      <c r="G86">
         <v>100</v>
       </c>
-      <c r="R85">
+      <c r="R86">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>386</v>
-      </c>
-      <c r="C86">
-        <v>1500</v>
-      </c>
-      <c r="D86">
-        <v>45</v>
-      </c>
-      <c r="E86">
-        <v>32</v>
-      </c>
-      <c r="F86">
-        <v>26</v>
-      </c>
-      <c r="G86">
-        <v>22</v>
-      </c>
-      <c r="R86">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="B87" t="s">
-        <v>388</v>
       </c>
       <c r="C87">
         <v>1500</v>
       </c>
       <c r="D87">
+        <v>45</v>
+      </c>
+      <c r="E87">
+        <v>32</v>
+      </c>
+      <c r="F87">
+        <v>26</v>
+      </c>
+      <c r="G87">
+        <v>22</v>
+      </c>
+      <c r="R87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B88" t="s">
+        <v>388</v>
+      </c>
+      <c r="C88">
+        <v>1500</v>
+      </c>
+      <c r="D88">
         <v>100</v>
       </c>
-      <c r="E87">
+      <c r="E88">
         <v>71</v>
       </c>
-      <c r="F87">
+      <c r="F88">
         <v>58</v>
       </c>
-      <c r="G87">
+      <c r="G88">
         <v>50</v>
       </c>
-      <c r="R87">
+      <c r="R88">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>390</v>
       </c>
-      <c r="C88">
+      <c r="C89">
         <v>500</v>
       </c>
-      <c r="D88">
+      <c r="D89">
         <v>60</v>
       </c>
-      <c r="E88">
+      <c r="E89">
         <v>42</v>
       </c>
-      <c r="F88">
+      <c r="F89">
         <v>35</v>
       </c>
-      <c r="G88">
+      <c r="G89">
         <v>30</v>
       </c>
-      <c r="R88">
+      <c r="R89">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>392</v>
       </c>
-      <c r="C89">
+      <c r="C90">
         <v>1500</v>
       </c>
-      <c r="D89">
+      <c r="D90">
         <v>100</v>
       </c>
-      <c r="E89">
+      <c r="E90">
         <v>71</v>
       </c>
-      <c r="F89">
+      <c r="F90">
         <v>58</v>
       </c>
-      <c r="G89">
+      <c r="G90">
         <v>50</v>
       </c>
-      <c r="R89">
+      <c r="R90">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>394</v>
       </c>
-      <c r="C90">
+      <c r="C91">
         <v>1800</v>
       </c>
-      <c r="D90">
+      <c r="D91">
         <v>75</v>
       </c>
-      <c r="E90">
+      <c r="E91">
         <v>53</v>
       </c>
-      <c r="F90">
+      <c r="F91">
         <v>43</v>
       </c>
-      <c r="G90">
+      <c r="G91">
         <v>38</v>
       </c>
-      <c r="R90">
+      <c r="R91">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>396</v>
       </c>
-      <c r="C91">
+      <c r="C92">
         <v>500</v>
-      </c>
-      <c r="D91">
-        <v>60</v>
-      </c>
-      <c r="E91">
-        <v>42</v>
-      </c>
-      <c r="F91">
-        <v>35</v>
-      </c>
-      <c r="G91">
-        <v>30</v>
-      </c>
-      <c r="R91">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="B92" t="s">
-        <v>394</v>
-      </c>
-      <c r="C92">
-        <v>1000</v>
       </c>
       <c r="D92">
         <v>60</v>
@@ -18946,96 +19014,96 @@
         <v>30</v>
       </c>
       <c r="R92">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B93" t="s">
         <v>394</v>
       </c>
       <c r="C93">
+        <v>1000</v>
+      </c>
+      <c r="D93">
+        <v>60</v>
+      </c>
+      <c r="E93">
+        <v>42</v>
+      </c>
+      <c r="F93">
+        <v>35</v>
+      </c>
+      <c r="G93">
+        <v>30</v>
+      </c>
+      <c r="R93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B94" t="s">
+        <v>394</v>
+      </c>
+      <c r="C94">
         <v>500</v>
       </c>
-      <c r="D93">
+      <c r="D94">
         <v>40</v>
       </c>
-      <c r="E93">
+      <c r="E94">
         <v>28</v>
       </c>
-      <c r="F93">
+      <c r="F94">
         <v>23</v>
       </c>
-      <c r="G93">
+      <c r="G94">
         <v>20</v>
       </c>
-      <c r="R93">
+      <c r="R94">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>400</v>
       </c>
-      <c r="C94">
+      <c r="C95">
         <v>2000</v>
       </c>
-      <c r="D94">
+      <c r="D95">
         <v>140</v>
       </c>
-      <c r="E94">
+      <c r="E95">
         <v>99</v>
       </c>
-      <c r="F94">
+      <c r="F95">
         <v>81</v>
       </c>
-      <c r="G94">
+      <c r="G95">
         <v>70</v>
       </c>
-      <c r="R94">
+      <c r="R95">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>402</v>
       </c>
-      <c r="C95">
+      <c r="C96">
         <v>1200</v>
-      </c>
-      <c r="D95">
-        <v>45</v>
-      </c>
-      <c r="E95">
-        <v>32</v>
-      </c>
-      <c r="F95">
-        <v>26</v>
-      </c>
-      <c r="G95">
-        <v>22</v>
-      </c>
-      <c r="R95">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="B96" t="s">
-        <v>404</v>
-      </c>
-      <c r="C96">
-        <v>650</v>
       </c>
       <c r="D96">
         <v>45</v>
@@ -19050,408 +19118,408 @@
         <v>22</v>
       </c>
       <c r="R96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B97" t="s">
+        <v>404</v>
+      </c>
+      <c r="C97">
+        <v>650</v>
+      </c>
+      <c r="D97">
+        <v>45</v>
+      </c>
+      <c r="E97">
+        <v>32</v>
+      </c>
+      <c r="F97">
+        <v>26</v>
+      </c>
+      <c r="G97">
+        <v>22</v>
+      </c>
+      <c r="R97">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>406</v>
       </c>
-      <c r="C97">
+      <c r="C98">
         <v>2000</v>
       </c>
-      <c r="D97">
+      <c r="D98">
         <v>100</v>
       </c>
-      <c r="E97">
+      <c r="E98">
         <v>71</v>
       </c>
-      <c r="F97">
+      <c r="F98">
         <v>58</v>
       </c>
-      <c r="G97">
+      <c r="G98">
         <v>50</v>
       </c>
-      <c r="R97">
+      <c r="R98">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>408</v>
       </c>
-      <c r="C98">
+      <c r="C99">
         <v>1000</v>
       </c>
-      <c r="D98">
+      <c r="D99">
         <v>60</v>
       </c>
-      <c r="E98">
+      <c r="E99">
         <v>42</v>
       </c>
-      <c r="F98">
+      <c r="F99">
         <v>35</v>
       </c>
-      <c r="G98">
+      <c r="G99">
         <v>30</v>
       </c>
-      <c r="R98">
+      <c r="R99">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="B99" t="s">
-        <v>406</v>
-      </c>
-      <c r="C99">
-        <v>1200</v>
-      </c>
-      <c r="D99">
-        <v>70</v>
-      </c>
-      <c r="E99">
-        <v>49</v>
-      </c>
-      <c r="F99">
-        <v>40</v>
-      </c>
-      <c r="G99">
-        <v>35</v>
-      </c>
-      <c r="R99">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>410</v>
       </c>
       <c r="B100" t="s">
         <v>406</v>
       </c>
       <c r="C100">
+        <v>1200</v>
+      </c>
+      <c r="D100">
+        <v>70</v>
+      </c>
+      <c r="E100">
+        <v>49</v>
+      </c>
+      <c r="F100">
+        <v>40</v>
+      </c>
+      <c r="G100">
+        <v>35</v>
+      </c>
+      <c r="R100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B101" t="s">
+        <v>406</v>
+      </c>
+      <c r="C101">
         <v>1800</v>
       </c>
-      <c r="D100">
+      <c r="D101">
         <v>120</v>
       </c>
-      <c r="E100">
+      <c r="E101">
         <v>85</v>
       </c>
-      <c r="F100">
+      <c r="F101">
         <v>69</v>
       </c>
-      <c r="G100">
+      <c r="G101">
         <v>60</v>
       </c>
-      <c r="R100">
+      <c r="R101">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>411</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>412</v>
       </c>
-      <c r="C101">
+      <c r="C102">
         <v>750</v>
       </c>
-      <c r="D101">
+      <c r="D102">
         <v>50</v>
       </c>
-      <c r="E101">
+      <c r="E102">
         <v>35</v>
       </c>
-      <c r="F101">
+      <c r="F102">
         <v>29</v>
       </c>
-      <c r="G101">
+      <c r="G102">
         <v>25</v>
       </c>
-      <c r="R101">
+      <c r="R102">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>414</v>
       </c>
-      <c r="C102">
+      <c r="C103">
         <v>250</v>
       </c>
-      <c r="D102">
+      <c r="D103">
         <v>25</v>
       </c>
-      <c r="E102">
+      <c r="E103">
         <v>18</v>
       </c>
-      <c r="F102">
+      <c r="F103">
         <v>14</v>
       </c>
-      <c r="G102">
+      <c r="G103">
         <v>12</v>
       </c>
-      <c r="R102">
+      <c r="R103">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>415</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>416</v>
       </c>
-      <c r="C103">
+      <c r="C104">
         <v>1000</v>
       </c>
-      <c r="D103">
+      <c r="D104">
         <v>60</v>
       </c>
-      <c r="E103">
+      <c r="E104">
         <v>42</v>
       </c>
-      <c r="F103">
+      <c r="F104">
         <v>35</v>
       </c>
-      <c r="G103">
+      <c r="G104">
         <v>30</v>
       </c>
-      <c r="R103">
+      <c r="R104">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>386</v>
       </c>
-      <c r="C104">
+      <c r="C105">
         <v>250</v>
       </c>
-      <c r="D104">
+      <c r="D105">
         <v>25</v>
       </c>
-      <c r="E104">
+      <c r="E105">
         <v>18</v>
       </c>
-      <c r="F104">
+      <c r="F105">
         <v>14</v>
       </c>
-      <c r="G104">
+      <c r="G105">
         <v>12</v>
       </c>
-      <c r="R104">
+      <c r="R105">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>418</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>419</v>
       </c>
-      <c r="C105">
+      <c r="C106">
         <v>1600</v>
       </c>
-      <c r="D105">
+      <c r="D106">
         <v>150</v>
       </c>
-      <c r="E105">
+      <c r="E106">
         <v>106</v>
       </c>
-      <c r="F105">
+      <c r="F106">
         <v>87</v>
       </c>
-      <c r="G105">
+      <c r="G106">
         <v>75</v>
       </c>
-      <c r="R105">
+      <c r="R106">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>420</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>421</v>
       </c>
-      <c r="C106">
+      <c r="C107">
         <v>1200</v>
       </c>
-      <c r="D106">
+      <c r="D107">
         <v>105</v>
       </c>
-      <c r="E106">
+      <c r="E107">
         <v>74</v>
       </c>
-      <c r="F106">
+      <c r="F107">
         <v>61</v>
       </c>
-      <c r="G106">
+      <c r="G107">
         <v>52</v>
       </c>
-      <c r="R106">
+      <c r="R107">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>422</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>423</v>
       </c>
-      <c r="C107">
+      <c r="C108">
         <v>500</v>
       </c>
-      <c r="D107">
+      <c r="D108">
         <v>40</v>
       </c>
-      <c r="E107">
+      <c r="E108">
         <v>28</v>
       </c>
-      <c r="F107">
+      <c r="F108">
         <v>23</v>
       </c>
-      <c r="G107">
+      <c r="G108">
         <v>20</v>
       </c>
-      <c r="R107">
+      <c r="R108">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>424</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>425</v>
       </c>
-      <c r="C108">
+      <c r="C109">
         <v>800</v>
       </c>
-      <c r="D108">
+      <c r="D109">
         <v>60</v>
       </c>
-      <c r="E108">
+      <c r="E109">
         <v>42</v>
       </c>
-      <c r="F108">
+      <c r="F109">
         <v>35</v>
       </c>
-      <c r="G108">
+      <c r="G109">
         <v>30</v>
       </c>
-      <c r="R108">
+      <c r="R109">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>426</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>427</v>
       </c>
-      <c r="C109">
+      <c r="C110">
         <v>500</v>
       </c>
-      <c r="D109">
+      <c r="D110">
         <v>30</v>
       </c>
-      <c r="E109">
+      <c r="E110">
         <v>21</v>
       </c>
-      <c r="F109">
+      <c r="F110">
         <v>17</v>
       </c>
-      <c r="G109">
+      <c r="G110">
         <v>15</v>
       </c>
-      <c r="R109">
+      <c r="R110">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="6" t="s">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>429</v>
       </c>
-      <c r="C110">
+      <c r="C111">
         <v>1500</v>
       </c>
-      <c r="D110">
+      <c r="D111">
         <v>70</v>
       </c>
-      <c r="E110">
+      <c r="E111">
         <v>49</v>
       </c>
-      <c r="F110">
+      <c r="F111">
         <v>40</v>
       </c>
-      <c r="G110">
+      <c r="G111">
         <v>35</v>
       </c>
-      <c r="R110">
+      <c r="R111">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>430</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>431</v>
       </c>
-      <c r="C111">
+      <c r="C112">
         <v>1000</v>
-      </c>
-      <c r="D111">
-        <v>95</v>
-      </c>
-      <c r="E111">
-        <v>67</v>
-      </c>
-      <c r="F111">
-        <v>55</v>
-      </c>
-      <c r="G111">
-        <v>48</v>
-      </c>
-      <c r="R111">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>432</v>
-      </c>
-      <c r="B112" t="s">
-        <v>433</v>
-      </c>
-      <c r="C112">
-        <v>4000</v>
       </c>
       <c r="D112">
         <v>95</v>
@@ -19466,117 +19534,90 @@
         <v>48</v>
       </c>
       <c r="R112">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B113" t="s">
         <v>433</v>
       </c>
       <c r="C113">
+        <v>4000</v>
+      </c>
+      <c r="D113">
+        <v>95</v>
+      </c>
+      <c r="E113">
+        <v>67</v>
+      </c>
+      <c r="F113">
+        <v>55</v>
+      </c>
+      <c r="G113">
+        <v>48</v>
+      </c>
+      <c r="R113">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>434</v>
+      </c>
+      <c r="B114" t="s">
+        <v>433</v>
+      </c>
+      <c r="C114">
         <v>2000</v>
       </c>
-      <c r="D113">
+      <c r="D114">
         <v>80</v>
       </c>
-      <c r="E113">
+      <c r="E114">
         <v>57</v>
       </c>
-      <c r="F113">
+      <c r="F114">
         <v>46</v>
       </c>
-      <c r="G113">
+      <c r="G114">
         <v>40</v>
       </c>
-      <c r="R113">
+      <c r="R114">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>435</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>436</v>
       </c>
-      <c r="C114">
+      <c r="C115">
         <v>1200</v>
       </c>
-      <c r="D114">
+      <c r="D115">
         <v>120</v>
       </c>
-      <c r="E114">
+      <c r="E115">
         <v>85</v>
       </c>
-      <c r="F114">
+      <c r="F115">
         <v>69</v>
       </c>
-      <c r="G114">
+      <c r="G115">
         <v>60</v>
       </c>
-      <c r="R114">
+      <c r="R115">
         <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="B115" t="s">
-        <v>485</v>
-      </c>
-      <c r="H115" s="38">
-        <v>1000</v>
-      </c>
-      <c r="I115" s="40">
-        <v>75</v>
-      </c>
-      <c r="J115" s="11">
-        <f>IFERROR(I115*$V$1,"")</f>
-        <v>53.124999975000001</v>
-      </c>
-      <c r="K115" s="11">
-        <f>IFERROR(I115*$W$1,"")</f>
-        <v>43.333333349999997</v>
-      </c>
-      <c r="L115" s="11">
-        <f>IFERROR(I115*$X$1,"")</f>
-        <v>37.5</v>
-      </c>
-      <c r="M115" s="42"/>
-      <c r="N115" s="11">
-        <v>300</v>
-      </c>
-      <c r="O115" s="11">
-        <f>N115/2</f>
-        <v>150</v>
-      </c>
-      <c r="P115" s="11">
-        <f>N115/3</f>
-        <v>100</v>
-      </c>
-      <c r="Q115" s="12">
-        <f>N115/4</f>
-        <v>75</v>
-      </c>
-      <c r="R115">
-        <v>114</v>
-      </c>
-      <c r="S115">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:X115">
-    <filterColumn colId="18">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <sortState ref="A43:Y115">
+    <sortState ref="A2:X115">
       <sortCondition ref="S1:S115"/>
     </sortState>
   </autoFilter>
